--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_top20.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2022_2023/Skill Corner/physical_top20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>143.9631837791133</v>
       </c>
       <c r="O2" t="n">
-        <v>363.8113790519624</v>
+        <v>52981.7189966233</v>
       </c>
       <c r="P2" t="n">
-        <v>32362.37989086402</v>
+        <v>1766.05804185714</v>
       </c>
       <c r="Q2" t="n">
-        <v>1766.05804185714</v>
+        <v>8744.242926887006</v>
       </c>
       <c r="R2" t="n">
-        <v>4962.994483488857</v>
+        <v>3515.905159885247</v>
       </c>
       <c r="S2" t="n">
-        <v>1886.3075678055</v>
+        <v>329.7984036759845</v>
       </c>
       <c r="T2" t="n">
-        <v>182.9318385772642</v>
+        <v>1164.111901950758</v>
       </c>
       <c r="U2" t="n">
-        <v>644.110054118566</v>
+        <v>55.51891134980439</v>
       </c>
       <c r="V2" t="n">
-        <v>31.34854997429</v>
+        <v>4680.011834859842</v>
       </c>
       <c r="W2" t="n">
-        <v>2530.417621924066</v>
+        <v>385.3214977044936</v>
       </c>
       <c r="X2" t="n">
-        <v>214.2803885515542</v>
+        <v>568.7960576443056</v>
       </c>
       <c r="Y2" t="n">
-        <v>337.9692415579473</v>
+        <v>34.97481544308356</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.58779813790003</v>
+        <v>380.6886191005839</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.6826178239126</v>
+        <v>62.90142954487354</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.51958521936086</v>
+        <v>55627.97472404063</v>
       </c>
       <c r="AC2" t="n">
-        <v>34652.10020541796</v>
+        <v>1854.266979892628</v>
       </c>
       <c r="AD2" t="n">
-        <v>1854.266979892628</v>
+        <v>10474.06858463888</v>
       </c>
       <c r="AE2" t="n">
-        <v>6262.628412919261</v>
+        <v>3844.26116788166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2290.246056560517</v>
+        <v>367.4996260645137</v>
       </c>
       <c r="AG2" t="n">
-        <v>218.3839433510436</v>
+        <v>1055.179994382907</v>
       </c>
       <c r="AH2" t="n">
-        <v>613.8601934375401</v>
+        <v>53.35106479783852</v>
       </c>
       <c r="AI2" t="n">
-        <v>32.23997619674716</v>
+        <v>4899.443732296899</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2904.106249998058</v>
+        <v>420.8465135850849</v>
       </c>
       <c r="AK2" t="n">
-        <v>250.6239195477907</v>
+        <v>626.9975356100836</v>
       </c>
       <c r="AL2" t="n">
-        <v>387.4922190122198</v>
+        <v>34.31196344972878</v>
       </c>
       <c r="AM2" t="n">
-        <v>20.76110179204314</v>
+        <v>439.020155913207</v>
       </c>
       <c r="AN2" t="n">
-        <v>280.1250669346207</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>46.35890270353144</v>
+        <v>77.29605274855351</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>160.5960009355744</v>
       </c>
       <c r="O3" t="n">
-        <v>373.1348456223599</v>
+        <v>54344.66552681267</v>
       </c>
       <c r="P3" t="n">
-        <v>33612.4842738097</v>
+        <v>1811.490361709193</v>
       </c>
       <c r="Q3" t="n">
-        <v>1811.490361709193</v>
+        <v>9038.171662407125</v>
       </c>
       <c r="R3" t="n">
-        <v>5249.09549326846</v>
+        <v>3703.82259601896</v>
       </c>
       <c r="S3" t="n">
-        <v>2107.295141558813</v>
+        <v>343.5011130464444</v>
       </c>
       <c r="T3" t="n">
-        <v>200.296751105115</v>
+        <v>1410.441540640822</v>
       </c>
       <c r="U3" t="n">
-        <v>785.1667863776586</v>
+        <v>69.38778438332102</v>
       </c>
       <c r="V3" t="n">
-        <v>40.33726474301361</v>
+        <v>5114.259427191553</v>
       </c>
       <c r="W3" t="n">
-        <v>2892.461927936472</v>
+        <v>412.891174685518</v>
       </c>
       <c r="X3" t="n">
-        <v>240.6340158481287</v>
+        <v>574.4829112536441</v>
       </c>
       <c r="Y3" t="n">
-        <v>347.2131454624051</v>
+        <v>35.96949609767562</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.98340967376671</v>
+        <v>390.2954543191925</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.6448444935683</v>
+        <v>62.1334238206869</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.5129971075888</v>
+        <v>57268.22229241873</v>
       </c>
       <c r="AC3" t="n">
-        <v>37822.31854404758</v>
+        <v>1908.947151473583</v>
       </c>
       <c r="AD3" t="n">
-        <v>1908.947151473583</v>
+        <v>10874.69214187918</v>
       </c>
       <c r="AE3" t="n">
-        <v>6928.393877240387</v>
+        <v>4214.446251455715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2612.690224338615</v>
+        <v>403.3811711814831</v>
       </c>
       <c r="AG3" t="n">
-        <v>252.893803523235</v>
+        <v>1388.054592202349</v>
       </c>
       <c r="AH3" t="n">
-        <v>803.7209273597966</v>
+        <v>66.37210038246604</v>
       </c>
       <c r="AI3" t="n">
-        <v>41.1515446012361</v>
+        <v>5602.495489036313</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3416.411151698412</v>
+        <v>469.758483225051</v>
       </c>
       <c r="AK3" t="n">
-        <v>294.0453481244711</v>
+        <v>629.0426432165364</v>
       </c>
       <c r="AL3" t="n">
-        <v>422.1520213138183</v>
+        <v>35.75860791177138</v>
       </c>
       <c r="AM3" t="n">
-        <v>21.96052381571247</v>
+        <v>443.0705240290878</v>
       </c>
       <c r="AN3" t="n">
-        <v>303.4022033279275</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>55.3394284069606</v>
+        <v>86.94170089572583</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>148.1670967529177</v>
       </c>
       <c r="O4" t="n">
-        <v>370.2700862077653</v>
+        <v>52611.85450419989</v>
       </c>
       <c r="P4" t="n">
-        <v>33915.71995097144</v>
+        <v>1753.728282022315</v>
       </c>
       <c r="Q4" t="n">
-        <v>1753.728282022315</v>
+        <v>8616.86832094997</v>
       </c>
       <c r="R4" t="n">
-        <v>5197.04572638462</v>
+        <v>3624.299559894102</v>
       </c>
       <c r="S4" t="n">
-        <v>2036.598324278342</v>
+        <v>339.4541316898026</v>
       </c>
       <c r="T4" t="n">
-        <v>193.7137880080039</v>
+        <v>1315.310311373343</v>
       </c>
       <c r="U4" t="n">
-        <v>717.0472164096155</v>
+        <v>62.59316991708526</v>
       </c>
       <c r="V4" t="n">
-        <v>35.57295625926439</v>
+        <v>4939.607308596389</v>
       </c>
       <c r="W4" t="n">
-        <v>2753.645540687957</v>
+        <v>402.043504516862</v>
       </c>
       <c r="X4" t="n">
-        <v>229.2867442672683</v>
+        <v>549.0786188871909</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.568058473487</v>
+        <v>31.67800817258671</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.63924959842123</v>
+        <v>378.1293367882991</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.6020230199511</v>
+        <v>58.24445192007749</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.87561799557377</v>
+        <v>56083.76835622035</v>
       </c>
       <c r="AC4" t="n">
-        <v>36392.78697285362</v>
+        <v>1869.459827471344</v>
       </c>
       <c r="AD4" t="n">
-        <v>1869.459827471344</v>
+        <v>10525.87128167017</v>
       </c>
       <c r="AE4" t="n">
-        <v>6480.722634647155</v>
+        <v>4054.931593120234</v>
       </c>
       <c r="AF4" t="n">
-        <v>2431.857240566506</v>
+        <v>374.9435968059238</v>
       </c>
       <c r="AG4" t="n">
-        <v>228.132999508417</v>
+        <v>1142.371153777225</v>
       </c>
       <c r="AH4" t="n">
-        <v>648.5732572372731</v>
+        <v>54.84115657461776</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.37074871670505</v>
+        <v>5197.301402907628</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3080.430497803779</v>
+        <v>429.7842054782778</v>
       </c>
       <c r="AK4" t="n">
-        <v>261.503748225122</v>
+        <v>618.5433948593121</v>
       </c>
       <c r="AL4" t="n">
-        <v>401.1740439424321</v>
+        <v>33.02458768198748</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.71626120488825</v>
+        <v>453.0457026086135</v>
       </c>
       <c r="AN4" t="n">
-        <v>297.1784820823694</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>47.84662452614567</v>
+        <v>79.85895419944165</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>159.7134217680868</v>
       </c>
       <c r="O5" t="n">
-        <v>362.6513751523415</v>
+        <v>53606.98929986767</v>
       </c>
       <c r="P5" t="n">
-        <v>33642.71549342184</v>
+        <v>1786.899154770357</v>
       </c>
       <c r="Q5" t="n">
-        <v>1786.899154770357</v>
+        <v>8694.386388408186</v>
       </c>
       <c r="R5" t="n">
-        <v>5174.276544087175</v>
+        <v>3428.829048441428</v>
       </c>
       <c r="S5" t="n">
-        <v>2024.102905234362</v>
+        <v>326.1714692864688</v>
       </c>
       <c r="T5" t="n">
-        <v>193.0349301758861</v>
+        <v>1304.302996311545</v>
       </c>
       <c r="U5" t="n">
-        <v>737.6629759703193</v>
+        <v>63.26250244174012</v>
       </c>
       <c r="V5" t="n">
-        <v>36.80141087181278</v>
+        <v>4733.133506972469</v>
       </c>
       <c r="W5" t="n">
-        <v>2761.765881204682</v>
+        <v>389.4434063000363</v>
       </c>
       <c r="X5" t="n">
-        <v>229.8363410476989</v>
+        <v>568.5583746726736</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.6774442385564</v>
+        <v>38.04714750533901</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.76323857409025</v>
+        <v>396.1945511475413</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.3556123155516</v>
+        <v>70.60468700924741</v>
       </c>
       <c r="AB5" t="n">
-        <v>41.9836817975556</v>
+        <v>56342.04277886466</v>
       </c>
       <c r="AC5" t="n">
-        <v>36106.14172131977</v>
+        <v>1878.063864086257</v>
       </c>
       <c r="AD5" t="n">
-        <v>1878.063864086257</v>
+        <v>10333.0248791622</v>
       </c>
       <c r="AE5" t="n">
-        <v>6439.077480028823</v>
+        <v>4034.72231097126</v>
       </c>
       <c r="AF5" t="n">
-        <v>2480.160136376634</v>
+        <v>380.6758276985335</v>
       </c>
       <c r="AG5" t="n">
-        <v>236.9850716618</v>
+        <v>1108.780989859384</v>
       </c>
       <c r="AH5" t="n">
-        <v>691.2808976923992</v>
+        <v>57.74788542135274</v>
       </c>
       <c r="AI5" t="n">
-        <v>36.60084096584757</v>
+        <v>5143.50334294286</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3171.441034069033</v>
+        <v>438.4351076899398</v>
       </c>
       <c r="AK5" t="n">
-        <v>273.5859126276476</v>
+        <v>636.2377884534518</v>
       </c>
       <c r="AL5" t="n">
-        <v>406.331577963604</v>
+        <v>33.98097231618543</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.06205559613402</v>
+        <v>445.216450618735</v>
       </c>
       <c r="AN5" t="n">
-        <v>291.2617672549939</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>52.84349886856057</v>
+        <v>87.41485471101853</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>157.5761227927242</v>
       </c>
       <c r="O6" t="n">
-        <v>368.1448460394994</v>
+        <v>54749.26165348329</v>
       </c>
       <c r="P6" t="n">
-        <v>34550.11909150574</v>
+        <v>1824.976286649522</v>
       </c>
       <c r="Q6" t="n">
-        <v>1824.976286649522</v>
+        <v>9019.973806679443</v>
       </c>
       <c r="R6" t="n">
-        <v>5328.889380254478</v>
+        <v>3647.282971832238</v>
       </c>
       <c r="S6" t="n">
-        <v>2050.55425855685</v>
+        <v>338.3397408222908</v>
       </c>
       <c r="T6" t="n">
-        <v>194.5940949813615</v>
+        <v>1203.026707078282</v>
       </c>
       <c r="U6" t="n">
-        <v>661.3538529494696</v>
+        <v>64.5656232092126</v>
       </c>
       <c r="V6" t="n">
-        <v>35.88688407421221</v>
+        <v>4850.311205321215</v>
       </c>
       <c r="W6" t="n">
-        <v>2711.908111506319</v>
+        <v>402.9115346218438</v>
       </c>
       <c r="X6" t="n">
-        <v>230.4809790555737</v>
+        <v>553.4551541292677</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.88192903831</v>
+        <v>34.32897028518322</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.18774626891841</v>
+        <v>374.447847869637</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.3139939586651</v>
+        <v>63.35466612765331</v>
       </c>
       <c r="AB6" t="n">
-        <v>37.38502439886975</v>
+        <v>57543.42981542661</v>
       </c>
       <c r="AC6" t="n">
-        <v>36988.86208498736</v>
+        <v>1918.114451797777</v>
       </c>
       <c r="AD6" t="n">
-        <v>1918.114451797777</v>
+        <v>10839.20077389732</v>
       </c>
       <c r="AE6" t="n">
-        <v>6698.950669434435</v>
+        <v>4203.99540569963</v>
       </c>
       <c r="AF6" t="n">
-        <v>2499.800177989069</v>
+        <v>385.5943367544691</v>
       </c>
       <c r="AG6" t="n">
-        <v>236.610038761681</v>
+        <v>1058.627556806862</v>
       </c>
       <c r="AH6" t="n">
-        <v>623.0753453328122</v>
+        <v>55.13979165154723</v>
       </c>
       <c r="AI6" t="n">
-        <v>33.52205046306161</v>
+        <v>5262.618796463968</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3122.875523321881</v>
+        <v>440.7417088738084</v>
       </c>
       <c r="AK6" t="n">
-        <v>270.1320892247426</v>
+        <v>635.7249678733397</v>
       </c>
       <c r="AL6" t="n">
-        <v>410.424885929951</v>
+        <v>32.21654382456062</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.28562147312521</v>
+        <v>458.3992482443566</v>
       </c>
       <c r="AN6" t="n">
-        <v>297.7392216225182</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>49.92962544984095</v>
+        <v>81.21063765633235</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>162.7842554988728</v>
       </c>
       <c r="O7" t="n">
-        <v>382.5859404654774</v>
+        <v>55455.03216218146</v>
       </c>
       <c r="P7" t="n">
-        <v>34858.07543624847</v>
+        <v>1848.500535772903</v>
       </c>
       <c r="Q7" t="n">
-        <v>1848.500535772903</v>
+        <v>8946.438745205423</v>
       </c>
       <c r="R7" t="n">
-        <v>5355.13359886643</v>
+        <v>3649.304689903026</v>
       </c>
       <c r="S7" t="n">
-        <v>2045.632266189864</v>
+        <v>355.4058218123917</v>
       </c>
       <c r="T7" t="n">
-        <v>202.4500736302192</v>
+        <v>1392.539195795023</v>
       </c>
       <c r="U7" t="n">
-        <v>728.5394269344724</v>
+        <v>65.09150199520568</v>
       </c>
       <c r="V7" t="n">
-        <v>37.07216825094545</v>
+        <v>5041.853143368412</v>
       </c>
       <c r="W7" t="n">
-        <v>2774.171693124337</v>
+        <v>420.4950654552899</v>
       </c>
       <c r="X7" t="n">
-        <v>239.5222418811646</v>
+        <v>592.8008620396392</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.6067443468015</v>
+        <v>37.96036110519118</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.40188695590187</v>
+        <v>401.2935940994562</v>
       </c>
       <c r="AA7" t="n">
-        <v>256.9237784495577</v>
+        <v>64.60751103444807</v>
       </c>
       <c r="AB7" t="n">
-        <v>37.65472009618132</v>
+        <v>59920.76764616287</v>
       </c>
       <c r="AC7" t="n">
-        <v>37697.92347396557</v>
+        <v>1997.362582180111</v>
       </c>
       <c r="AD7" t="n">
-        <v>1997.362582180111</v>
+        <v>11062.64626750429</v>
       </c>
       <c r="AE7" t="n">
-        <v>6765.117087940551</v>
+        <v>4247.920250052097</v>
       </c>
       <c r="AF7" t="n">
-        <v>2585.85948212566</v>
+        <v>413.6010721280267</v>
       </c>
       <c r="AG7" t="n">
-        <v>253.0456341176015</v>
+        <v>1261.098480518976</v>
       </c>
       <c r="AH7" t="n">
-        <v>731.9334144266973</v>
+        <v>67.03422077279738</v>
       </c>
       <c r="AI7" t="n">
-        <v>40.17930775887001</v>
+        <v>5509.027918214839</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3317.792896552357</v>
+        <v>480.6320764694718</v>
       </c>
       <c r="AK7" t="n">
-        <v>293.2249418764716</v>
+        <v>681.3306712771569</v>
       </c>
       <c r="AL7" t="n">
-        <v>433.5270840956792</v>
+        <v>38.79392590938464</v>
       </c>
       <c r="AM7" t="n">
-        <v>22.24878410820206</v>
+        <v>497.9210569802323</v>
       </c>
       <c r="AN7" t="n">
-        <v>315.908110113709</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>55.46641040819164</v>
+        <v>93.95586966085165</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>152.5105140739083</v>
       </c>
       <c r="O8" t="n">
-        <v>373.4289185601423</v>
+        <v>55391.64428801647</v>
       </c>
       <c r="P8" t="n">
-        <v>33278.84370160345</v>
+        <v>1846.388599690056</v>
       </c>
       <c r="Q8" t="n">
-        <v>1846.388599690056</v>
+        <v>9309.19906090642</v>
       </c>
       <c r="R8" t="n">
-        <v>5268.112392700898</v>
+        <v>3875.839871185517</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.615512626899</v>
+        <v>362.2570934687802</v>
       </c>
       <c r="T8" t="n">
-        <v>203.0833608013201</v>
+        <v>1412.073605309929</v>
       </c>
       <c r="U8" t="n">
-        <v>740.2862404212121</v>
+        <v>70.08710971968928</v>
       </c>
       <c r="V8" t="n">
-        <v>39.15302462669318</v>
+        <v>5287.914061689567</v>
       </c>
       <c r="W8" t="n">
-        <v>2856.901753048111</v>
+        <v>432.3407673311552</v>
       </c>
       <c r="X8" t="n">
-        <v>242.2363854280133</v>
+        <v>569.8844729443852</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.3024267053412</v>
+        <v>35.8234929274125</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.03605460885367</v>
+        <v>388.0955344649457</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.6567494411844</v>
+        <v>72.04745467869768</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.72215300246468</v>
+        <v>58554.20430754981</v>
       </c>
       <c r="AC8" t="n">
-        <v>35685.68577015092</v>
+        <v>1951.804669988966</v>
       </c>
       <c r="AD8" t="n">
-        <v>1951.804669988966</v>
+        <v>11465.04099012554</v>
       </c>
       <c r="AE8" t="n">
-        <v>6723.04519827918</v>
+        <v>4419.691497133113</v>
       </c>
       <c r="AF8" t="n">
-        <v>2595.180254146596</v>
+        <v>402.7749391192921</v>
       </c>
       <c r="AG8" t="n">
-        <v>244.2032018990447</v>
+        <v>1230.710399412557</v>
       </c>
       <c r="AH8" t="n">
-        <v>747.9407167123602</v>
+        <v>63.94894036842611</v>
       </c>
       <c r="AI8" t="n">
-        <v>39.23194063085454</v>
+        <v>5650.406263610129</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3343.120970858956</v>
+        <v>466.7199836834699</v>
       </c>
       <c r="AK8" t="n">
-        <v>283.4351425298993</v>
+        <v>641.2625873362483</v>
       </c>
       <c r="AL8" t="n">
-        <v>400.19424177742</v>
+        <v>32.55575055239136</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.36157869236549</v>
+        <v>449.6801403838014</v>
       </c>
       <c r="AN8" t="n">
-        <v>284.2731533939994</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>48.76091242479725</v>
+        <v>81.29613734360616</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>152.1350100105843</v>
       </c>
       <c r="O9" t="n">
-        <v>371.8310920845609</v>
+        <v>55163.30546440152</v>
       </c>
       <c r="P9" t="n">
-        <v>34209.75017176683</v>
+        <v>1838.779094215975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1838.779094215975</v>
+        <v>9095.58265813184</v>
       </c>
       <c r="R9" t="n">
-        <v>5368.58827606039</v>
+        <v>3829.418248209701</v>
       </c>
       <c r="S9" t="n">
-        <v>2112.512615109647</v>
+        <v>349.9097839391369</v>
       </c>
       <c r="T9" t="n">
-        <v>197.7688005481298</v>
+        <v>1386.598930335626</v>
       </c>
       <c r="U9" t="n">
-        <v>751.5552301335852</v>
+        <v>63.99591642801064</v>
       </c>
       <c r="V9" t="n">
-        <v>36.00860835111163</v>
+        <v>5216.025016745263</v>
       </c>
       <c r="W9" t="n">
-        <v>2864.067845243232</v>
+        <v>413.9031716253216</v>
       </c>
       <c r="X9" t="n">
-        <v>233.7774088992414</v>
+        <v>563.828086648905</v>
       </c>
       <c r="Y9" t="n">
-        <v>344.0560375929576</v>
+        <v>32.0908146075408</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.49326593335745</v>
+        <v>381.4677161551572</v>
       </c>
       <c r="AA9" t="n">
-        <v>242.4354026989178</v>
+        <v>65.62341876133297</v>
       </c>
       <c r="AB9" t="n">
-        <v>37.1363691604592</v>
+        <v>59302.72312191501</v>
       </c>
       <c r="AC9" t="n">
-        <v>36824.95044507633</v>
+        <v>1976.754424109902</v>
       </c>
       <c r="AD9" t="n">
-        <v>1976.754424109902</v>
+        <v>11434.91479778344</v>
       </c>
       <c r="AE9" t="n">
-        <v>6857.028975612544</v>
+        <v>4461.40167534611</v>
       </c>
       <c r="AF9" t="n">
-        <v>2597.89987826341</v>
+        <v>409.1185754592803</v>
       </c>
       <c r="AG9" t="n">
-        <v>242.6821716132229</v>
+        <v>1229.257472434133</v>
       </c>
       <c r="AH9" t="n">
-        <v>723.2395449762204</v>
+        <v>57.3712461284539</v>
       </c>
       <c r="AI9" t="n">
-        <v>35.99048492979168</v>
+        <v>5690.652358779167</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3321.139423239631</v>
+        <v>466.4898618649333</v>
       </c>
       <c r="AK9" t="n">
-        <v>278.6726565430147</v>
+        <v>641.8023030127383</v>
       </c>
       <c r="AL9" t="n">
-        <v>407.2037617759884</v>
+        <v>32.38619553689792</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.69229848756535</v>
+        <v>461.8662781783781</v>
       </c>
       <c r="AN9" t="n">
-        <v>294.1492896901306</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48.450140610585</v>
+        <v>82.89732015498262</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>151.494260541175</v>
       </c>
       <c r="O10" t="n">
-        <v>363.4595809008642</v>
+        <v>54469.75920020968</v>
       </c>
       <c r="P10" t="n">
-        <v>34568.10837713738</v>
+        <v>1815.65647416239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1815.65647416239</v>
+        <v>9116.924460696153</v>
       </c>
       <c r="R10" t="n">
-        <v>5524.738088283159</v>
+        <v>3596.184800833486</v>
       </c>
       <c r="S10" t="n">
-        <v>2079.136420537013</v>
+        <v>328.8067087917785</v>
       </c>
       <c r="T10" t="n">
-        <v>194.5851076933835</v>
+        <v>1199.487980112959</v>
       </c>
       <c r="U10" t="n">
-        <v>676.4927317647034</v>
+        <v>55.29740267633711</v>
       </c>
       <c r="V10" t="n">
-        <v>33.13713237097469</v>
+        <v>4795.668736562171</v>
       </c>
       <c r="W10" t="n">
-        <v>2755.629152301717</v>
+        <v>384.1103208666576</v>
       </c>
       <c r="X10" t="n">
-        <v>227.7222400643582</v>
+        <v>578.7897046291589</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.0499209152771</v>
+        <v>36.46900735583861</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.78075347508741</v>
+        <v>401.0734125157076</v>
       </c>
       <c r="AA10" t="n">
-        <v>256.6541116247803</v>
+        <v>62.3283465879683</v>
       </c>
       <c r="AB10" t="n">
-        <v>37.25065421462448</v>
+        <v>57068.84410170552</v>
       </c>
       <c r="AC10" t="n">
-        <v>37454.96742792541</v>
+        <v>1902.293277212456</v>
       </c>
       <c r="AD10" t="n">
-        <v>1902.293277212456</v>
+        <v>11030.75916738916</v>
       </c>
       <c r="AE10" t="n">
-        <v>7117.533939402148</v>
+        <v>4109.262939209527</v>
       </c>
       <c r="AF10" t="n">
-        <v>2647.904028496874</v>
+        <v>373.9529689084052</v>
       </c>
       <c r="AG10" t="n">
-        <v>242.6268763424168</v>
+        <v>1002.084657349767</v>
       </c>
       <c r="AH10" t="n">
-        <v>643.0439648464646</v>
+        <v>49.10774774648517</v>
       </c>
       <c r="AI10" t="n">
-        <v>32.57227532848312</v>
+        <v>5111.342815048871</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3290.947993343339</v>
+        <v>423.0584558769018</v>
       </c>
       <c r="AK10" t="n">
-        <v>275.1991516708999</v>
+        <v>654.0498063770675</v>
       </c>
       <c r="AL10" t="n">
-        <v>429.5063545183165</v>
+        <v>30.30546762322219</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.57307920633271</v>
+        <v>469.2237151574803</v>
       </c>
       <c r="AN10" t="n">
-        <v>312.8607488601487</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>51.91635765491601</v>
+        <v>80.27952844467413</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>156.997611707971</v>
       </c>
       <c r="O11" t="n">
-        <v>372.5578361367446</v>
+        <v>52978.31799219405</v>
       </c>
       <c r="P11" t="n">
-        <v>35543.66511686685</v>
+        <v>1765.945772602003</v>
       </c>
       <c r="Q11" t="n">
-        <v>1765.945772602003</v>
+        <v>8831.74956169813</v>
       </c>
       <c r="R11" t="n">
-        <v>5682.25780587698</v>
+        <v>3485.609942848821</v>
       </c>
       <c r="S11" t="n">
-        <v>2096.953321086639</v>
+        <v>319.031934215401</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7342557987114</v>
+        <v>1170.921554189247</v>
       </c>
       <c r="U11" t="n">
-        <v>716.5003329792642</v>
+        <v>56.37035261033714</v>
       </c>
       <c r="V11" t="n">
-        <v>36.21552866208041</v>
+        <v>4656.533558263531</v>
       </c>
       <c r="W11" t="n">
-        <v>2813.453654065904</v>
+        <v>375.4059565405229</v>
       </c>
       <c r="X11" t="n">
-        <v>237.9497844607918</v>
+        <v>554.7991321247202</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.8291387412261</v>
+        <v>29.82539413382352</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.0599356717116</v>
+        <v>386.6173043164584</v>
       </c>
       <c r="AA11" t="n">
-        <v>260.5256027259445</v>
+        <v>60.53668372472365</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.56001341258119</v>
+        <v>56424.78978479088</v>
       </c>
       <c r="AC11" t="n">
-        <v>38096.51715323287</v>
+        <v>1880.828738314551</v>
       </c>
       <c r="AD11" t="n">
-        <v>1880.828738314551</v>
+        <v>10756.67493033212</v>
       </c>
       <c r="AE11" t="n">
-        <v>7011.147101176901</v>
+        <v>4054.794390537817</v>
       </c>
       <c r="AF11" t="n">
-        <v>2560.29168101441</v>
+        <v>376.6874048448856</v>
       </c>
       <c r="AG11" t="n">
-        <v>240.5902001152365</v>
+        <v>1082.439531200847</v>
       </c>
       <c r="AH11" t="n">
-        <v>685.0294739437395</v>
+        <v>54.92408106579129</v>
       </c>
       <c r="AI11" t="n">
-        <v>35.43305270875211</v>
+        <v>5137.23805675822</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3245.321154958149</v>
+        <v>431.6109997322149</v>
       </c>
       <c r="AK11" t="n">
-        <v>276.0232528239886</v>
+        <v>627.3252863283012</v>
       </c>
       <c r="AL11" t="n">
-        <v>427.1510753445892</v>
+        <v>28.12723321130224</v>
       </c>
       <c r="AM11" t="n">
-        <v>18.81081260695489</v>
+        <v>454.6156850399607</v>
       </c>
       <c r="AN11" t="n">
-        <v>318.9309616783095</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>53.20279332709723</v>
+        <v>82.15137167307394</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>158.9303551273754</v>
       </c>
       <c r="O12" t="n">
-        <v>383.4823780600627</v>
+        <v>56319.93587718514</v>
       </c>
       <c r="P12" t="n">
-        <v>35588.70898495596</v>
+        <v>1877.328278515697</v>
       </c>
       <c r="Q12" t="n">
-        <v>1877.328278515697</v>
+        <v>9471.695657254582</v>
       </c>
       <c r="R12" t="n">
-        <v>5580.968882729333</v>
+        <v>3860.103994278933</v>
       </c>
       <c r="S12" t="n">
-        <v>2171.862064268001</v>
+        <v>362.9079251376161</v>
       </c>
       <c r="T12" t="n">
-        <v>208.9883116178634</v>
+        <v>1380.084699360841</v>
       </c>
       <c r="U12" t="n">
-        <v>750.4239742716458</v>
+        <v>69.63142239729561</v>
       </c>
       <c r="V12" t="n">
-        <v>38.23430212353044</v>
+        <v>5240.192883111125</v>
       </c>
       <c r="W12" t="n">
-        <v>2922.286038539647</v>
+        <v>432.540691365716</v>
       </c>
       <c r="X12" t="n">
-        <v>247.2226137413938</v>
+        <v>602.9477238159003</v>
       </c>
       <c r="Y12" t="n">
-        <v>372.9293779872803</v>
+        <v>37.65014070735445</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.91918793652599</v>
+        <v>414.3516928315614</v>
       </c>
       <c r="AA12" t="n">
-        <v>263.922449377609</v>
+        <v>65.69657715979255</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.09052667722242</v>
+        <v>60035.52539251991</v>
       </c>
       <c r="AC12" t="n">
-        <v>38721.62040793755</v>
+        <v>2001.184219207706</v>
       </c>
       <c r="AD12" t="n">
-        <v>2001.184219207706</v>
+        <v>11789.09923164421</v>
       </c>
       <c r="AE12" t="n">
-        <v>7349.145677090417</v>
+        <v>4479.038639509472</v>
       </c>
       <c r="AF12" t="n">
-        <v>2739.434070813953</v>
+        <v>414.9222892046288</v>
       </c>
       <c r="AG12" t="n">
-        <v>257.0200453990724</v>
+        <v>1199.255333260306</v>
       </c>
       <c r="AH12" t="n">
-        <v>725.9457623000377</v>
+        <v>59.77824047600834</v>
       </c>
       <c r="AI12" t="n">
-        <v>37.50677009352766</v>
+        <v>5678.300496858944</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3465.379833113991</v>
+        <v>474.7005529171858</v>
       </c>
       <c r="AK12" t="n">
-        <v>294.5268154926001</v>
+        <v>670.6127471556781</v>
       </c>
       <c r="AL12" t="n">
-        <v>442.9448262493207</v>
+        <v>33.76069771145916</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.34465218694538</v>
+        <v>487.3106586092275</v>
       </c>
       <c r="AN12" t="n">
-        <v>325.6475402916618</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>54.45324164897946</v>
+        <v>86.31637439759137</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>150.3181019549718</v>
       </c>
       <c r="O13" t="n">
-        <v>377.7947881499277</v>
+        <v>55122.15337275442</v>
       </c>
       <c r="P13" t="n">
-        <v>34956.17290512589</v>
+        <v>1837.407919796903</v>
       </c>
       <c r="Q13" t="n">
-        <v>1837.407919796903</v>
+        <v>9162.179570310138</v>
       </c>
       <c r="R13" t="n">
-        <v>5513.039887432854</v>
+        <v>3858.433343218637</v>
       </c>
       <c r="S13" t="n">
-        <v>2168.326110048414</v>
+        <v>372.6581957849525</v>
       </c>
       <c r="T13" t="n">
-        <v>210.6696040394868</v>
+        <v>1594.495672412381</v>
       </c>
       <c r="U13" t="n">
-        <v>793.7459645814963</v>
+        <v>74.08994066200063</v>
       </c>
       <c r="V13" t="n">
-        <v>40.08379314458739</v>
+        <v>5452.93153455546</v>
       </c>
       <c r="W13" t="n">
-        <v>2962.07207462991</v>
+        <v>446.7475842483959</v>
       </c>
       <c r="X13" t="n">
-        <v>250.7533971840742</v>
+        <v>571.6771974938375</v>
       </c>
       <c r="Y13" t="n">
-        <v>353.8734489600345</v>
+        <v>33.81725098484881</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.40833947260266</v>
+        <v>403.8500742570741</v>
       </c>
       <c r="AA13" t="n">
-        <v>255.6153485878804</v>
+        <v>63.61415271751467</v>
       </c>
       <c r="AB13" t="n">
-        <v>37.78981426665992</v>
+        <v>57966.51715207961</v>
       </c>
       <c r="AC13" t="n">
-        <v>37448.28112556634</v>
+        <v>1932.218996688136</v>
       </c>
       <c r="AD13" t="n">
-        <v>1932.218996688136</v>
+        <v>10746.12914678084</v>
       </c>
       <c r="AE13" t="n">
-        <v>6775.59316694933</v>
+        <v>4293.242938713152</v>
       </c>
       <c r="AF13" t="n">
-        <v>2597.978804238773</v>
+        <v>400.7607287298176</v>
       </c>
       <c r="AG13" t="n">
-        <v>244.2221304569142</v>
+        <v>1342.083909917777</v>
       </c>
       <c r="AH13" t="n">
-        <v>751.0685004135933</v>
+        <v>64.75934035758111</v>
       </c>
       <c r="AI13" t="n">
-        <v>38.21210517399102</v>
+        <v>5635.325303971611</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3349.047304652366</v>
+        <v>465.519090299093</v>
       </c>
       <c r="AK13" t="n">
-        <v>282.4342356309052</v>
+        <v>626.0052785121238</v>
       </c>
       <c r="AL13" t="n">
-        <v>405.6406191224908</v>
+        <v>31.10214184093004</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.22435859393002</v>
+        <v>463.421694135637</v>
       </c>
       <c r="AN13" t="n">
-        <v>304.6612638842832</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>47.38648483627061</v>
+        <v>77.26793956077263</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>161.3721838888302</v>
       </c>
       <c r="O14" t="n">
-        <v>378.1603582543954</v>
+        <v>54437.4667868738</v>
       </c>
       <c r="P14" t="n">
-        <v>34901.06332888537</v>
+        <v>1814.582336529442</v>
       </c>
       <c r="Q14" t="n">
-        <v>1814.582336529442</v>
+        <v>9157.864659784471</v>
       </c>
       <c r="R14" t="n">
-        <v>5488.136592238753</v>
+        <v>3811.166143788347</v>
       </c>
       <c r="S14" t="n">
-        <v>2110.291510337482</v>
+        <v>355.3176924735278</v>
       </c>
       <c r="T14" t="n">
-        <v>200.57381051083</v>
+        <v>1407.168935311938</v>
       </c>
       <c r="U14" t="n">
-        <v>725.7546232155913</v>
+        <v>69.12011608009297</v>
       </c>
       <c r="V14" t="n">
-        <v>38.0052339895059</v>
+        <v>5218.333078406719</v>
       </c>
       <c r="W14" t="n">
-        <v>2836.046133553073</v>
+        <v>424.4373594790562</v>
       </c>
       <c r="X14" t="n">
-        <v>238.5790445003359</v>
+        <v>571.9621566136477</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.6953092880183</v>
+        <v>35.47970152718149</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.82822889542894</v>
+        <v>389.1750432333394</v>
       </c>
       <c r="AA14" t="n">
-        <v>250.2207888219658</v>
+        <v>67.4449349651189</v>
       </c>
       <c r="AB14" t="n">
-        <v>39.74913546358781</v>
+        <v>58312.64300616419</v>
       </c>
       <c r="AC14" t="n">
-        <v>37824.435687859</v>
+        <v>1943.755516813568</v>
       </c>
       <c r="AD14" t="n">
-        <v>1943.755516813568</v>
+        <v>11392.67893688505</v>
       </c>
       <c r="AE14" t="n">
-        <v>7150.419021783327</v>
+        <v>4349.583607896747</v>
       </c>
       <c r="AF14" t="n">
-        <v>2607.257083879914</v>
+        <v>398.4396782750077</v>
       </c>
       <c r="AG14" t="n">
-        <v>246.427529348627</v>
+        <v>1115.707941592963</v>
       </c>
       <c r="AH14" t="n">
-        <v>687.5682387618182</v>
+        <v>56.43913219909679</v>
       </c>
       <c r="AI14" t="n">
-        <v>36.28610382376664</v>
+        <v>5465.296239486035</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3294.825322641732</v>
+        <v>454.8750139453816</v>
       </c>
       <c r="AK14" t="n">
-        <v>282.7136331723937</v>
+        <v>639.6541070525246</v>
       </c>
       <c r="AL14" t="n">
-        <v>422.4227418015351</v>
+        <v>34.19606666548019</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.47007866591218</v>
+        <v>460.390793564574</v>
       </c>
       <c r="AN14" t="n">
-        <v>308.9810418958103</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>53.59724612931772</v>
+        <v>84.99038009182983</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>162.1638500904609</v>
       </c>
       <c r="O15" t="n">
-        <v>364.3901738798972</v>
+        <v>52305.10220092989</v>
       </c>
       <c r="P15" t="n">
-        <v>34971.17643422603</v>
+        <v>1743.499941017371</v>
       </c>
       <c r="Q15" t="n">
-        <v>1743.499941017371</v>
+        <v>8704.922687213782</v>
       </c>
       <c r="R15" t="n">
-        <v>5615.953336546492</v>
+        <v>3569.862341058789</v>
       </c>
       <c r="S15" t="n">
-        <v>2188.878223898974</v>
+        <v>326.9516928800526</v>
       </c>
       <c r="T15" t="n">
-        <v>206.285539275443</v>
+        <v>1202.182914447847</v>
       </c>
       <c r="U15" t="n">
-        <v>739.8794425117574</v>
+        <v>59.80449334118559</v>
       </c>
       <c r="V15" t="n">
-        <v>37.4843185238445</v>
+        <v>4772.043456564931</v>
       </c>
       <c r="W15" t="n">
-        <v>2928.757666410732</v>
+        <v>386.7548458699179</v>
       </c>
       <c r="X15" t="n">
-        <v>243.7698577992875</v>
+        <v>559.8867278396899</v>
       </c>
       <c r="Y15" t="n">
-        <v>368.2059013160815</v>
+        <v>34.01149508835253</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.50113389515898</v>
+        <v>377.4822296575215</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.9746817852898</v>
+        <v>61.47748014241703</v>
       </c>
       <c r="AB15" t="n">
-        <v>39.33441272057729</v>
+        <v>56642.50970598097</v>
       </c>
       <c r="AC15" t="n">
-        <v>37617.19007782433</v>
+        <v>1888.08500289329</v>
       </c>
       <c r="AD15" t="n">
-        <v>1888.08500289329</v>
+        <v>10906.73072134043</v>
       </c>
       <c r="AE15" t="n">
-        <v>7071.146752473755</v>
+        <v>4351.824053468488</v>
       </c>
       <c r="AF15" t="n">
-        <v>2677.963368991158</v>
+        <v>404.106250856299</v>
       </c>
       <c r="AG15" t="n">
-        <v>249.78826524618</v>
+        <v>1141.156998066876</v>
       </c>
       <c r="AH15" t="n">
-        <v>686.7251263633168</v>
+        <v>57.28603225643921</v>
       </c>
       <c r="AI15" t="n">
-        <v>35.05990135143459</v>
+        <v>5492.977851234804</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3364.688495354475</v>
+        <v>461.392795778197</v>
       </c>
       <c r="AK15" t="n">
-        <v>284.8481665976145</v>
+        <v>650.0170907861883</v>
       </c>
       <c r="AL15" t="n">
-        <v>435.3567424634156</v>
+        <v>35.2532085553506</v>
       </c>
       <c r="AM15" t="n">
-        <v>22.35537931817588</v>
+        <v>470.9461767821068</v>
       </c>
       <c r="AN15" t="n">
-        <v>320.7441665548234</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>51.99193690009132</v>
+        <v>81.52882448379</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>150.6154678306642</v>
       </c>
       <c r="O16" t="n">
-        <v>367.4558662845607</v>
+        <v>53171.41093376064</v>
       </c>
       <c r="P16" t="n">
-        <v>34728.67803988235</v>
+        <v>1772.378308793953</v>
       </c>
       <c r="Q16" t="n">
-        <v>1772.378308793953</v>
+        <v>8919.867873266823</v>
       </c>
       <c r="R16" t="n">
-        <v>5564.636050959435</v>
+        <v>3664.92337798678</v>
       </c>
       <c r="S16" t="n">
-        <v>2162.051605895479</v>
+        <v>344.1592997631079</v>
       </c>
       <c r="T16" t="n">
-        <v>207.2653860411238</v>
+        <v>1419.239071027451</v>
       </c>
       <c r="U16" t="n">
-        <v>790.0512212951008</v>
+        <v>64.79902237866935</v>
       </c>
       <c r="V16" t="n">
-        <v>39.32771041472629</v>
+        <v>5084.163919352806</v>
       </c>
       <c r="W16" t="n">
-        <v>2952.102827190581</v>
+        <v>408.9573768333414</v>
       </c>
       <c r="X16" t="n">
-        <v>246.5930964558501</v>
+        <v>561.0099664877494</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.4118374540082</v>
+        <v>32.53145669705513</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.36963048994047</v>
+        <v>388.5032426355904</v>
       </c>
       <c r="AA16" t="n">
-        <v>257.0089081909632</v>
+        <v>58.80420939180659</v>
       </c>
       <c r="AB16" t="n">
-        <v>37.04430981808044</v>
+        <v>56147.24538176545</v>
       </c>
       <c r="AC16" t="n">
-        <v>37307.12576221826</v>
+        <v>1871.572261028157</v>
       </c>
       <c r="AD16" t="n">
-        <v>1871.572261028157</v>
+        <v>10867.37282059048</v>
       </c>
       <c r="AE16" t="n">
-        <v>7060.988121207457</v>
+        <v>4201.804980982546</v>
       </c>
       <c r="AF16" t="n">
-        <v>2716.177148708408</v>
+        <v>385.1977884937295</v>
       </c>
       <c r="AG16" t="n">
-        <v>252.0814067569347</v>
+        <v>1207.975682930232</v>
       </c>
       <c r="AH16" t="n">
-        <v>769.4322359582902</v>
+        <v>56.91972645892414</v>
       </c>
       <c r="AI16" t="n">
-        <v>38.12008408376531</v>
+        <v>5409.778510642645</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3485.609384666698</v>
+        <v>442.1171850974054</v>
       </c>
       <c r="AK16" t="n">
-        <v>290.2014908407</v>
+        <v>632.7043460080341</v>
       </c>
       <c r="AL16" t="n">
-        <v>421.5284539419843</v>
+        <v>32.31028781747726</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.82525758147314</v>
+        <v>449.5471198222447</v>
       </c>
       <c r="AN16" t="n">
-        <v>304.7095715790932</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>49.28485371952635</v>
+        <v>75.97846888746258</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>156.3498636822807</v>
       </c>
       <c r="O17" t="n">
-        <v>367.628112297937</v>
+        <v>53156.99102922482</v>
       </c>
       <c r="P17" t="n">
-        <v>34550.73340742505</v>
+        <v>1771.898572932231</v>
       </c>
       <c r="Q17" t="n">
-        <v>1771.898572932231</v>
+        <v>8791.875331712305</v>
       </c>
       <c r="R17" t="n">
-        <v>5454.442059709627</v>
+        <v>3509.688164956461</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.03071699568</v>
+        <v>334.2390674061829</v>
       </c>
       <c r="T17" t="n">
-        <v>200.1997013593043</v>
+        <v>1183.665560843913</v>
       </c>
       <c r="U17" t="n">
-        <v>708.5370329441923</v>
+        <v>60.05793031264943</v>
       </c>
       <c r="V17" t="n">
-        <v>36.92675040076581</v>
+        <v>4693.353411386172</v>
       </c>
       <c r="W17" t="n">
-        <v>2796.567749939872</v>
+        <v>394.2949120678045</v>
       </c>
       <c r="X17" t="n">
-        <v>237.1264517600701</v>
+        <v>590.7209135783261</v>
       </c>
       <c r="Y17" t="n">
-        <v>372.2222107289246</v>
+        <v>31.47851906755844</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.91541185131872</v>
+        <v>414.66766431754</v>
       </c>
       <c r="AA17" t="n">
-        <v>268.218397821997</v>
+        <v>63.9475752979401</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.00731652741123</v>
+        <v>57071.61665902959</v>
       </c>
       <c r="AC17" t="n">
-        <v>37600.78836539447</v>
+        <v>1902.388939508095</v>
       </c>
       <c r="AD17" t="n">
-        <v>1902.388939508095</v>
+        <v>11032.93979224454</v>
       </c>
       <c r="AE17" t="n">
-        <v>7153.673694365863</v>
+        <v>4183.385678054356</v>
       </c>
       <c r="AF17" t="n">
-        <v>2675.442808321347</v>
+        <v>383.1127743075291</v>
       </c>
       <c r="AG17" t="n">
-        <v>249.5427515661709</v>
+        <v>1008.860205644528</v>
       </c>
       <c r="AH17" t="n">
-        <v>648.6413250021288</v>
+        <v>55.96715825876804</v>
       </c>
       <c r="AI17" t="n">
-        <v>35.87695927565466</v>
+        <v>5192.243698939094</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3324.084133323476</v>
+        <v>439.0779242653853</v>
       </c>
       <c r="AK17" t="n">
-        <v>285.4197108418255</v>
+        <v>649.5633592914724</v>
       </c>
       <c r="AL17" t="n">
-        <v>433.3011596048671</v>
+        <v>30.66446799817112</v>
       </c>
       <c r="AM17" t="n">
-        <v>20.2708904411</v>
+        <v>482.54616342855</v>
       </c>
       <c r="AN17" t="n">
-        <v>321.6770383345935</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51.78678702223947</v>
+        <v>82.71898512446961</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>156.6882161470635</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9512205528773</v>
+        <v>53949.97687058899</v>
       </c>
       <c r="P18" t="n">
-        <v>34335.23704288729</v>
+        <v>1798.332647082151</v>
       </c>
       <c r="Q18" t="n">
-        <v>1798.332647082151</v>
+        <v>8946.068301426531</v>
       </c>
       <c r="R18" t="n">
-        <v>5406.817640389743</v>
+        <v>3702.385470989295</v>
       </c>
       <c r="S18" t="n">
-        <v>2124.587551711399</v>
+        <v>347.0497620013842</v>
       </c>
       <c r="T18" t="n">
-        <v>203.2264209338887</v>
+        <v>1225.472496371535</v>
       </c>
       <c r="U18" t="n">
-        <v>719.6120839594319</v>
+        <v>61.87291153733581</v>
       </c>
       <c r="V18" t="n">
-        <v>36.9669028797303</v>
+        <v>4927.863137226734</v>
       </c>
       <c r="W18" t="n">
-        <v>2844.199635670831</v>
+        <v>408.9199311697703</v>
       </c>
       <c r="X18" t="n">
-        <v>240.193323813619</v>
+        <v>589.9123798455682</v>
       </c>
       <c r="Y18" t="n">
-        <v>364.4369695987338</v>
+        <v>30.57373776341661</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.01181893098087</v>
+        <v>395.0898574079872</v>
       </c>
       <c r="AA18" t="n">
-        <v>253.6862588463308</v>
+        <v>59.51903773684509</v>
       </c>
       <c r="AB18" t="n">
-        <v>36.6238258144111</v>
+        <v>57895.62006266491</v>
       </c>
       <c r="AC18" t="n">
-        <v>37108.18730208876</v>
+        <v>1929.853332384934</v>
       </c>
       <c r="AD18" t="n">
-        <v>1929.853332384934</v>
+        <v>11215.12321803723</v>
       </c>
       <c r="AE18" t="n">
-        <v>6956.864737108668</v>
+        <v>4276.627781066124</v>
       </c>
       <c r="AF18" t="n">
-        <v>2627.602532258535</v>
+        <v>394.0753363085619</v>
       </c>
       <c r="AG18" t="n">
-        <v>245.5200576681927</v>
+        <v>1099.450924752469</v>
       </c>
       <c r="AH18" t="n">
-        <v>685.2351910971086</v>
+        <v>55.83174312959301</v>
       </c>
       <c r="AI18" t="n">
-        <v>35.46436722466684</v>
+        <v>5376.082482505461</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3312.837723355643</v>
+        <v>449.9085380619072</v>
       </c>
       <c r="AK18" t="n">
-        <v>280.9844248928596</v>
+        <v>655.3263125394573</v>
       </c>
       <c r="AL18" t="n">
-        <v>426.0375433960558</v>
+        <v>34.29708384861006</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.41628585972744</v>
+        <v>464.2512130627304</v>
       </c>
       <c r="AN18" t="n">
-        <v>304.9369787247024</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>50.83063037786314</v>
+        <v>84.36277962129165</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>164.6884324325302</v>
       </c>
       <c r="O19" t="n">
-        <v>372.8266694320383</v>
+        <v>55225.22421305519</v>
       </c>
       <c r="P19" t="n">
-        <v>34748.01418697005</v>
+        <v>1840.840904097738</v>
       </c>
       <c r="Q19" t="n">
-        <v>1840.840904097738</v>
+        <v>9383.464006638804</v>
       </c>
       <c r="R19" t="n">
-        <v>5582.71328629618</v>
+        <v>3893.189096833873</v>
       </c>
       <c r="S19" t="n">
-        <v>2201.530333991333</v>
+        <v>363.7952220194973</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0358174154573</v>
+        <v>1318.598397571877</v>
       </c>
       <c r="U19" t="n">
-        <v>720.9310065500391</v>
+        <v>62.19698985835683</v>
       </c>
       <c r="V19" t="n">
-        <v>36.01308016629004</v>
+        <v>5211.792197458778</v>
       </c>
       <c r="W19" t="n">
-        <v>2922.461340541373</v>
+        <v>425.9958472872133</v>
       </c>
       <c r="X19" t="n">
-        <v>244.0488975817474</v>
+        <v>607.6482714630409</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.6248639664974</v>
+        <v>36.13332357925206</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.19535089334712</v>
+        <v>401.9655553561692</v>
       </c>
       <c r="AA19" t="n">
-        <v>256.1590159474459</v>
+        <v>65.66425090391618</v>
       </c>
       <c r="AB19" t="n">
-        <v>39.0635031617708</v>
+        <v>58331.82850576708</v>
       </c>
       <c r="AC19" t="n">
-        <v>37536.45198915771</v>
+        <v>1944.390786655373</v>
       </c>
       <c r="AD19" t="n">
-        <v>1944.390786655373</v>
+        <v>11535.23533786933</v>
       </c>
       <c r="AE19" t="n">
-        <v>7185.720713279138</v>
+        <v>4578.445266338709</v>
       </c>
       <c r="AF19" t="n">
-        <v>2784.838988845391</v>
+        <v>426.5960179253528</v>
       </c>
       <c r="AG19" t="n">
-        <v>259.2531387062635</v>
+        <v>1300.307288502608</v>
       </c>
       <c r="AH19" t="n">
-        <v>750.2474828068778</v>
+        <v>65.28962364134306</v>
       </c>
       <c r="AI19" t="n">
-        <v>38.39872474304259</v>
+        <v>5878.751998482249</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3535.086471652269</v>
+        <v>491.8834916818382</v>
       </c>
       <c r="AK19" t="n">
-        <v>297.6518634493061</v>
+        <v>677.5262334975178</v>
       </c>
       <c r="AL19" t="n">
-        <v>439.0756267973144</v>
+        <v>35.23016550138538</v>
       </c>
       <c r="AM19" t="n">
-        <v>21.96247580115861</v>
+        <v>470.7766636805641</v>
       </c>
       <c r="AN19" t="n">
-        <v>317.3230345721227</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>55.63287559112752</v>
+        <v>89.6310707606889</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>162.9752084715519</v>
       </c>
       <c r="O20" t="n">
-        <v>364.516898320307</v>
+        <v>53840.54708990284</v>
       </c>
       <c r="P20" t="n">
-        <v>34792.88827737215</v>
+        <v>1794.687353493039</v>
       </c>
       <c r="Q20" t="n">
-        <v>1794.687353493039</v>
+        <v>9240.270861466908</v>
       </c>
       <c r="R20" t="n">
-        <v>5618.126239438023</v>
+        <v>3676.024719513799</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.319668402712</v>
+        <v>350.661969021919</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2340552982515</v>
+        <v>1246.262618110806</v>
       </c>
       <c r="U20" t="n">
-        <v>716.9287683401215</v>
+        <v>59.44689822648593</v>
       </c>
       <c r="V20" t="n">
-        <v>36.07437240673856</v>
+        <v>4922.290977703054</v>
       </c>
       <c r="W20" t="n">
-        <v>2891.248436742833</v>
+        <v>410.1126726572151</v>
       </c>
       <c r="X20" t="n">
-        <v>247.30842770499</v>
+        <v>588.0633809288306</v>
       </c>
       <c r="Y20" t="n">
-        <v>370.4073864618962</v>
+        <v>36.38305100923788</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.05558208237701</v>
+        <v>408.8057107651777</v>
       </c>
       <c r="AA20" t="n">
-        <v>262.7953720130219</v>
+        <v>67.65084083869083</v>
       </c>
       <c r="AB20" t="n">
-        <v>40.28796186709648</v>
+        <v>56545.18004294099</v>
       </c>
       <c r="AC20" t="n">
-        <v>37611.68423653662</v>
+        <v>1884.839436918371</v>
       </c>
       <c r="AD20" t="n">
-        <v>1884.839436918371</v>
+        <v>11099.02330003256</v>
       </c>
       <c r="AE20" t="n">
-        <v>7223.458398683167</v>
+        <v>4335.791146822016</v>
       </c>
       <c r="AF20" t="n">
-        <v>2735.679607245741</v>
+        <v>391.8266614404844</v>
       </c>
       <c r="AG20" t="n">
-        <v>250.9962213682852</v>
+        <v>1077.171785327697</v>
       </c>
       <c r="AH20" t="n">
-        <v>677.0388661048174</v>
+        <v>55.32920786621658</v>
       </c>
       <c r="AI20" t="n">
-        <v>36.31382575389513</v>
+        <v>5412.963511315462</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3412.718473350559</v>
+        <v>447.1586825728608</v>
       </c>
       <c r="AK20" t="n">
-        <v>287.3100471221804</v>
+        <v>640.0963955983318</v>
       </c>
       <c r="AL20" t="n">
-        <v>429.4800266692039</v>
+        <v>31.19339002112618</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.61759863161887</v>
+        <v>473.5666533895264</v>
       </c>
       <c r="AN20" t="n">
-        <v>319.5016004730821</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>53.54694577291002</v>
+        <v>81.67004318478904</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>160.0693469432366</v>
       </c>
       <c r="O21" t="n">
-        <v>366.8605730731269</v>
+        <v>52651.64534906748</v>
       </c>
       <c r="P21" t="n">
-        <v>35678.68316905621</v>
+        <v>1755.054918658115</v>
       </c>
       <c r="Q21" t="n">
-        <v>1755.054918658115</v>
+        <v>8965.204285279664</v>
       </c>
       <c r="R21" t="n">
-        <v>5741.867881955818</v>
+        <v>3669.678796844201</v>
       </c>
       <c r="S21" t="n">
-        <v>2262.305288496772</v>
+        <v>340.082101788268</v>
       </c>
       <c r="T21" t="n">
-        <v>211.6823371428111</v>
+        <v>1243.420859049618</v>
       </c>
       <c r="U21" t="n">
-        <v>762.2517230997058</v>
+        <v>62.87587610592222</v>
       </c>
       <c r="V21" t="n">
-        <v>39.5342067681989</v>
+        <v>4913.098740717282</v>
       </c>
       <c r="W21" t="n">
-        <v>3024.557011596478</v>
+        <v>402.9688074087294</v>
       </c>
       <c r="X21" t="n">
-        <v>251.21654391101</v>
+        <v>562.1106570679481</v>
       </c>
       <c r="Y21" t="n">
-        <v>366.0546725678438</v>
+        <v>29.98248817375119</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.73416788674582</v>
+        <v>392.8392258905893</v>
       </c>
       <c r="AA21" t="n">
-        <v>263.2581431352494</v>
+        <v>59.41699978674522</v>
       </c>
       <c r="AB21" t="n">
-        <v>38.95709821366992</v>
+        <v>56789.43023526442</v>
       </c>
       <c r="AC21" t="n">
-        <v>38810.32477103348</v>
+        <v>1892.977431058198</v>
       </c>
       <c r="AD21" t="n">
-        <v>1892.977431058198</v>
+        <v>11206.58718235371</v>
       </c>
       <c r="AE21" t="n">
-        <v>7399.82072383171</v>
+        <v>4493.763784713775</v>
       </c>
       <c r="AF21" t="n">
-        <v>2923.269203902401</v>
+        <v>398.5385152981912</v>
       </c>
       <c r="AG21" t="n">
-        <v>261.3127151712602</v>
+        <v>1134.694275687307</v>
       </c>
       <c r="AH21" t="n">
-        <v>755.6142047855558</v>
+        <v>57.31294871569973</v>
       </c>
       <c r="AI21" t="n">
-        <v>39.31443583239722</v>
+        <v>5628.461359593596</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3678.883408687958</v>
+        <v>455.8599076357369</v>
       </c>
       <c r="AK21" t="n">
-        <v>300.6271510036574</v>
+        <v>650.8752087957141</v>
       </c>
       <c r="AL21" t="n">
-        <v>439.2849798597525</v>
+        <v>32.23831323974342</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.62732197785381</v>
+        <v>467.9854942588733</v>
       </c>
       <c r="AN21" t="n">
-        <v>322.7005872657896</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>55.27404102495184</v>
+        <v>87.07828848123503</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>162.1319555005448</v>
       </c>
       <c r="O22" t="n">
-        <v>378.4562158304504</v>
+        <v>57915.93294572103</v>
       </c>
       <c r="P22" t="n">
-        <v>34948.9989271579</v>
+        <v>1930.528787274563</v>
       </c>
       <c r="Q22" t="n">
-        <v>1930.528787274563</v>
+        <v>10081.72968849821</v>
       </c>
       <c r="R22" t="n">
-        <v>5819.409450361994</v>
+        <v>4274.38536033172</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.364645076336</v>
+        <v>396.5315061792213</v>
       </c>
       <c r="T22" t="n">
-        <v>220.1882257493451</v>
+        <v>1622.35907355212</v>
       </c>
       <c r="U22" t="n">
-        <v>839.9723382638056</v>
+        <v>76.44888294101202</v>
       </c>
       <c r="V22" t="n">
-        <v>41.95968619098247</v>
+        <v>5896.744359533082</v>
       </c>
       <c r="W22" t="n">
-        <v>3184.336983340142</v>
+        <v>472.9741998421138</v>
       </c>
       <c r="X22" t="n">
-        <v>262.1479119403276</v>
+        <v>638.0280801076659</v>
       </c>
       <c r="Y22" t="n">
-        <v>374.4046758533324</v>
+        <v>41.58684060430595</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.87252940640834</v>
+        <v>420.1088177801704</v>
       </c>
       <c r="AA22" t="n">
-        <v>259.0924862174456</v>
+        <v>73.34602762417779</v>
       </c>
       <c r="AB22" t="n">
-        <v>41.62467233116226</v>
+        <v>60362.60493876314</v>
       </c>
       <c r="AC22" t="n">
-        <v>37606.2581992761</v>
+        <v>2012.087206108157</v>
       </c>
       <c r="AD22" t="n">
-        <v>2012.087206108157</v>
+        <v>12179.3217795286</v>
       </c>
       <c r="AE22" t="n">
-        <v>7389.440922659363</v>
+        <v>5141.345712223184</v>
       </c>
       <c r="AF22" t="n">
-        <v>2995.867187102738</v>
+        <v>462.88395387094</v>
       </c>
       <c r="AG22" t="n">
-        <v>274.6774022871256</v>
+        <v>1376.980444805078</v>
       </c>
       <c r="AH22" t="n">
-        <v>809.1509758425175</v>
+        <v>65.8913276154706</v>
       </c>
       <c r="AI22" t="n">
-        <v>40.91545931295074</v>
+        <v>6518.326663955338</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3805.018162945255</v>
+        <v>528.7767314943969</v>
       </c>
       <c r="AK22" t="n">
-        <v>315.5928616000764</v>
+        <v>681.8013192100457</v>
       </c>
       <c r="AL22" t="n">
-        <v>430.9174137979572</v>
+        <v>33.15628991820189</v>
       </c>
       <c r="AM22" t="n">
-        <v>20.30783817865798</v>
+        <v>484.6058578309905</v>
       </c>
       <c r="AN22" t="n">
-        <v>310.9189418988518</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>52.18734008323719</v>
+        <v>88.91859911650447</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>163.1078229907822</v>
       </c>
       <c r="O23" t="n">
-        <v>376.6065152909553</v>
+        <v>54656.42034572981</v>
       </c>
       <c r="P23" t="n">
-        <v>35589.48851457316</v>
+        <v>1821.882636599277</v>
       </c>
       <c r="Q23" t="n">
-        <v>1821.882636599277</v>
+        <v>9502.142847859006</v>
       </c>
       <c r="R23" t="n">
-        <v>5855.288784271838</v>
+        <v>3925.025344243987</v>
       </c>
       <c r="S23" t="n">
-        <v>2263.757024654537</v>
+        <v>369.6978350320169</v>
       </c>
       <c r="T23" t="n">
-        <v>214.1220390142415</v>
+        <v>1465.089683213277</v>
       </c>
       <c r="U23" t="n">
-        <v>740.5120091455603</v>
+        <v>66.8326954976764</v>
       </c>
       <c r="V23" t="n">
-        <v>37.33572327666662</v>
+        <v>5390.11329694026</v>
       </c>
       <c r="W23" t="n">
-        <v>3004.269033800097</v>
+        <v>436.5342686508502</v>
       </c>
       <c r="X23" t="n">
-        <v>251.4577622909081</v>
+        <v>586.224759761486</v>
       </c>
       <c r="Y23" t="n">
-        <v>373.3527128929759</v>
+        <v>36.55480509551214</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.17810906393381</v>
+        <v>406.9908377672239</v>
       </c>
       <c r="AA23" t="n">
-        <v>269.869580124726</v>
+        <v>64.64534587720989</v>
       </c>
       <c r="AB23" t="n">
-        <v>39.19092048479465</v>
+        <v>57950.48659466258</v>
       </c>
       <c r="AC23" t="n">
-        <v>38210.79404535202</v>
+        <v>1931.683108541382</v>
       </c>
       <c r="AD23" t="n">
-        <v>1931.683108541382</v>
+        <v>11587.29995926391</v>
       </c>
       <c r="AE23" t="n">
-        <v>7440.877071925669</v>
+        <v>4760.55768314032</v>
       </c>
       <c r="AF23" t="n">
-        <v>2957.464877089054</v>
+        <v>426.7208748873818</v>
       </c>
       <c r="AG23" t="n">
-        <v>270.682809736003</v>
+        <v>1211.670573846292</v>
       </c>
       <c r="AH23" t="n">
-        <v>743.302431188076</v>
+        <v>65.73261017923095</v>
       </c>
       <c r="AI23" t="n">
-        <v>40.65452070320045</v>
+        <v>5972.227772380425</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3700.76730827713</v>
+        <v>492.4552754056507</v>
       </c>
       <c r="AK23" t="n">
-        <v>311.3373304392035</v>
+        <v>662.7150372825408</v>
       </c>
       <c r="AL23" t="n">
-        <v>448.4732626168262</v>
+        <v>34.66889295941981</v>
       </c>
       <c r="AM23" t="n">
-        <v>21.87776298955173</v>
+        <v>468.8255902811796</v>
       </c>
       <c r="AN23" t="n">
-        <v>324.1297938948302</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>58.27307748890198</v>
+        <v>89.77731234327123</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>164.5488314237332</v>
       </c>
       <c r="O24" t="n">
-        <v>363.3982551251668</v>
+        <v>53585.36321397201</v>
       </c>
       <c r="P24" t="n">
-        <v>34739.84409746557</v>
+        <v>1786.179067289558</v>
       </c>
       <c r="Q24" t="n">
-        <v>1786.179067289558</v>
+        <v>9209.601828101691</v>
       </c>
       <c r="R24" t="n">
-        <v>5661.703437630208</v>
+        <v>3877.72383061986</v>
       </c>
       <c r="S24" t="n">
-        <v>2294.808330909135</v>
+        <v>353.4504722194461</v>
       </c>
       <c r="T24" t="n">
-        <v>213.0683288868998</v>
+        <v>1356.35005267277</v>
       </c>
       <c r="U24" t="n">
-        <v>769.9849214580485</v>
+        <v>64.26579316151091</v>
       </c>
       <c r="V24" t="n">
-        <v>38.59036208646172</v>
+        <v>5234.074774321908</v>
       </c>
       <c r="W24" t="n">
-        <v>3064.793252367183</v>
+        <v>417.7157431455527</v>
       </c>
       <c r="X24" t="n">
-        <v>251.6586909733615</v>
+        <v>563.6803408268223</v>
       </c>
       <c r="Y24" t="n">
-        <v>359.4498656686615</v>
+        <v>34.02030209288553</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.68990994196077</v>
+        <v>383.5905262757746</v>
       </c>
       <c r="AA24" t="n">
-        <v>251.5214606435385</v>
+        <v>64.26030018364136</v>
       </c>
       <c r="AB24" t="n">
-        <v>39.84650070294939</v>
+        <v>58810.8684717824</v>
       </c>
       <c r="AC24" t="n">
-        <v>37678.08000683459</v>
+        <v>1960.362582881365</v>
       </c>
       <c r="AD24" t="n">
-        <v>1960.362582881365</v>
+        <v>11888.95018916728</v>
       </c>
       <c r="AE24" t="n">
-        <v>7366.569523880088</v>
+        <v>4758.031445812971</v>
       </c>
       <c r="AF24" t="n">
-        <v>2881.44217938225</v>
+        <v>421.7386935115734</v>
       </c>
       <c r="AG24" t="n">
-        <v>260.9616724581399</v>
+        <v>1226.130420307722</v>
       </c>
       <c r="AH24" t="n">
-        <v>729.1749819431225</v>
+        <v>60.59589666804338</v>
       </c>
       <c r="AI24" t="n">
-        <v>37.49864993572881</v>
+        <v>5984.15360748425</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3610.617161325373</v>
+        <v>482.3383629071277</v>
       </c>
       <c r="AK24" t="n">
-        <v>298.4603223938688</v>
+        <v>649.4103568811818</v>
       </c>
       <c r="AL24" t="n">
-        <v>428.8834119067848</v>
+        <v>35.60903546632539</v>
       </c>
       <c r="AM24" t="n">
-        <v>21.32797469971916</v>
+        <v>460.0490760654895</v>
       </c>
       <c r="AN24" t="n">
-        <v>309.4058099120593</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>53.10536015187127</v>
+        <v>87.78072221680374</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>166.7883390930127</v>
       </c>
       <c r="O25" t="n">
-        <v>368.1730832267608</v>
+        <v>54993.24931410366</v>
       </c>
       <c r="P25" t="n">
-        <v>34752.40989219751</v>
+        <v>1833.106330934937</v>
       </c>
       <c r="Q25" t="n">
-        <v>1833.106330934937</v>
+        <v>9391.645599296433</v>
       </c>
       <c r="R25" t="n">
-        <v>5691.709308208863</v>
+        <v>4000.498608547481</v>
       </c>
       <c r="S25" t="n">
-        <v>2307.291628371959</v>
+        <v>368.6024513234139</v>
       </c>
       <c r="T25" t="n">
-        <v>215.1637206380382</v>
+        <v>1414.080702376497</v>
       </c>
       <c r="U25" t="n">
-        <v>739.5186570267655</v>
+        <v>70.22122266963532</v>
       </c>
       <c r="V25" t="n">
-        <v>39.35967823589924</v>
+        <v>5414.577367752495</v>
       </c>
       <c r="W25" t="n">
-        <v>3046.810285398724</v>
+        <v>438.8289059107727</v>
       </c>
       <c r="X25" t="n">
-        <v>254.5233988739374</v>
+        <v>582.0491149080417</v>
       </c>
       <c r="Y25" t="n">
-        <v>365.9523320066342</v>
+        <v>35.70028413244611</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.12447719632733</v>
+        <v>394.996535492935</v>
       </c>
       <c r="AA25" t="n">
-        <v>253.1537023847875</v>
+        <v>69.95843834299856</v>
       </c>
       <c r="AB25" t="n">
-        <v>41.42004937609585</v>
+        <v>58301.77686031545</v>
       </c>
       <c r="AC25" t="n">
-        <v>37424.66931624017</v>
+        <v>1943.389373755565</v>
       </c>
       <c r="AD25" t="n">
-        <v>1943.389373755565</v>
+        <v>11842.64368215473</v>
       </c>
       <c r="AE25" t="n">
-        <v>7354.213894919994</v>
+        <v>4709.054556289036</v>
       </c>
       <c r="AF25" t="n">
-        <v>2843.400636758129</v>
+        <v>423.225865768366</v>
       </c>
       <c r="AG25" t="n">
-        <v>258.465528051424</v>
+        <v>1160.905955322597</v>
       </c>
       <c r="AH25" t="n">
-        <v>687.4769099978467</v>
+        <v>63.59146142870096</v>
       </c>
       <c r="AI25" t="n">
-        <v>37.73192804550506</v>
+        <v>5869.961391134118</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3530.877546755975</v>
+        <v>486.8205977995259</v>
       </c>
       <c r="AK25" t="n">
-        <v>296.1974560969291</v>
+        <v>661.6001347942873</v>
       </c>
       <c r="AL25" t="n">
-        <v>428.1219695629973</v>
+        <v>36.04402672498069</v>
       </c>
       <c r="AM25" t="n">
-        <v>21.58200262210277</v>
+        <v>462.1673887003878</v>
       </c>
       <c r="AN25" t="n">
-        <v>306.3091794988666</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>53.10606888447616</v>
+        <v>86.50317945907146</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>165.1290899753964</v>
       </c>
       <c r="O26" t="n">
-        <v>368.0557706432406</v>
+        <v>53356.14668672489</v>
       </c>
       <c r="P26" t="n">
-        <v>35933.0378174323</v>
+        <v>1778.541353844714</v>
       </c>
       <c r="Q26" t="n">
-        <v>1778.541353844714</v>
+        <v>9148.816709143894</v>
       </c>
       <c r="R26" t="n">
-        <v>5909.685147762259</v>
+        <v>3798.484330806096</v>
       </c>
       <c r="S26" t="n">
-        <v>2354.351666642072</v>
+        <v>354.5882462739269</v>
       </c>
       <c r="T26" t="n">
-        <v>223.4293654876612</v>
+        <v>1333.374050827119</v>
       </c>
       <c r="U26" t="n">
-        <v>822.2596483346224</v>
+        <v>65.92457768426861</v>
       </c>
       <c r="V26" t="n">
-        <v>41.75217767476037</v>
+        <v>5131.85557169517</v>
       </c>
       <c r="W26" t="n">
-        <v>3176.611314976695</v>
+        <v>420.5160909750081</v>
       </c>
       <c r="X26" t="n">
-        <v>265.1815431624216</v>
+        <v>580.2841986343467</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2165092994943</v>
+        <v>30.48362817332161</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.67842914785338</v>
+        <v>399.2084471334059</v>
       </c>
       <c r="AA26" t="n">
-        <v>270.5531109976831</v>
+        <v>57.33998629900725</v>
       </c>
       <c r="AB26" t="n">
-        <v>38.760777680887</v>
+        <v>56939.14144145765</v>
       </c>
       <c r="AC26" t="n">
-        <v>38859.67885054297</v>
+        <v>1897.968410758944</v>
       </c>
       <c r="AD26" t="n">
-        <v>1897.968410758944</v>
+        <v>11352.50778304222</v>
       </c>
       <c r="AE26" t="n">
-        <v>7537.724701445963</v>
+        <v>4609.994772829193</v>
       </c>
       <c r="AF26" t="n">
-        <v>2989.422306280454</v>
+        <v>410.6684641359035</v>
       </c>
       <c r="AG26" t="n">
-        <v>270.7394494449667</v>
+        <v>1135.407578376795</v>
       </c>
       <c r="AH26" t="n">
-        <v>756.8254301312197</v>
+        <v>58.34971654599106</v>
       </c>
       <c r="AI26" t="n">
-        <v>40.43772557764557</v>
+        <v>5745.404173117694</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3746.247736411673</v>
+        <v>469.0183279243652</v>
       </c>
       <c r="AK26" t="n">
-        <v>311.1771750226122</v>
+        <v>649.0138154519911</v>
       </c>
       <c r="AL26" t="n">
-        <v>447.1522580454678</v>
+        <v>30.0188905428564</v>
       </c>
       <c r="AM26" t="n">
-        <v>20.00762494739078</v>
+        <v>477.0334733966344</v>
       </c>
       <c r="AN26" t="n">
-        <v>329.5383137155861</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>54.06540731199372</v>
+        <v>81.30626416122945</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>166.8669832620936</v>
       </c>
       <c r="O27" t="n">
-        <v>365.5890871542378</v>
+        <v>53289.8175080685</v>
       </c>
       <c r="P27" t="n">
-        <v>34187.21462191395</v>
+        <v>1776.326133107088</v>
       </c>
       <c r="Q27" t="n">
-        <v>1776.326133107088</v>
+        <v>9184.64994830584</v>
       </c>
       <c r="R27" t="n">
-        <v>5578.438317665011</v>
+        <v>3916.530120882794</v>
       </c>
       <c r="S27" t="n">
-        <v>2250.469735365245</v>
+        <v>358.4086157695525</v>
       </c>
       <c r="T27" t="n">
-        <v>210.6135713752151</v>
+        <v>1459.782829839206</v>
       </c>
       <c r="U27" t="n">
-        <v>773.9103261081849</v>
+        <v>68.59130286838283</v>
       </c>
       <c r="V27" t="n">
-        <v>39.80801026798063</v>
+        <v>5376.310574347074</v>
       </c>
       <c r="W27" t="n">
-        <v>3024.380061473431</v>
+        <v>426.9966140641081</v>
       </c>
       <c r="X27" t="n">
-        <v>250.4215816431957</v>
+        <v>562.0224236191685</v>
       </c>
       <c r="Y27" t="n">
-        <v>357.9300334486041</v>
+        <v>35.36044868221762</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.22175803329091</v>
+        <v>383.9905689991384</v>
       </c>
       <c r="AA27" t="n">
-        <v>253.800816285009</v>
+        <v>61.65743367976013</v>
       </c>
       <c r="AB27" t="n">
-        <v>39.27649677847313</v>
+        <v>59144.65622169089</v>
       </c>
       <c r="AC27" t="n">
-        <v>36946.01831095325</v>
+        <v>1971.486359112832</v>
       </c>
       <c r="AD27" t="n">
-        <v>1971.486359112832</v>
+        <v>11996.74777954247</v>
       </c>
       <c r="AE27" t="n">
-        <v>7163.922683495742</v>
+        <v>4794.694313153708</v>
       </c>
       <c r="AF27" t="n">
-        <v>2759.731359317184</v>
+        <v>438.6861849725337</v>
       </c>
       <c r="AG27" t="n">
-        <v>254.9716227578452</v>
+        <v>1366.150744173498</v>
       </c>
       <c r="AH27" t="n">
-        <v>747.2205749690057</v>
+        <v>69.8377787756701</v>
       </c>
       <c r="AI27" t="n">
-        <v>39.35076542074778</v>
+        <v>6160.844168219461</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3506.95193428619</v>
+        <v>508.5296971250306</v>
       </c>
       <c r="AK27" t="n">
-        <v>294.3223881785929</v>
+        <v>676.7396133634485</v>
       </c>
       <c r="AL27" t="n">
-        <v>426.195609819141</v>
+        <v>36.00980618929798</v>
       </c>
       <c r="AM27" t="n">
-        <v>21.69657511538044</v>
+        <v>475.2344686540749</v>
       </c>
       <c r="AN27" t="n">
-        <v>306.9897293628358</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>53.70147123120095</v>
+        <v>89.86122079792275</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>158.3746226476648</v>
       </c>
       <c r="O28" t="n">
-        <v>367.8657740977611</v>
+        <v>54659.1533789909</v>
       </c>
       <c r="P28" t="n">
-        <v>33889.54301718504</v>
+        <v>1821.969738542505</v>
       </c>
       <c r="Q28" t="n">
-        <v>1821.969738542505</v>
+        <v>9466.339891377462</v>
       </c>
       <c r="R28" t="n">
-        <v>5567.748421634949</v>
+        <v>3933.611015422639</v>
       </c>
       <c r="S28" t="n">
-        <v>2192.976166540807</v>
+        <v>356.0413994602624</v>
       </c>
       <c r="T28" t="n">
-        <v>204.8351898040831</v>
+        <v>1387.979688781283</v>
       </c>
       <c r="U28" t="n">
-        <v>761.2594407096524</v>
+        <v>63.87030606166451</v>
       </c>
       <c r="V28" t="n">
-        <v>38.31483605442999</v>
+        <v>5321.595378028918</v>
       </c>
       <c r="W28" t="n">
-        <v>2954.235607250459</v>
+        <v>419.9145955524894</v>
       </c>
       <c r="X28" t="n">
-        <v>243.150025858513</v>
+        <v>584.0717493337219</v>
       </c>
       <c r="Y28" t="n">
-        <v>355.9552139772235</v>
+        <v>32.92023851461322</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.49609261100389</v>
+        <v>393.6044001690971</v>
       </c>
       <c r="AA28" t="n">
-        <v>248.2032443461897</v>
+        <v>65.6351729175669</v>
       </c>
       <c r="AB28" t="n">
-        <v>38.57005105873511</v>
+        <v>57854.16303686755</v>
       </c>
       <c r="AC28" t="n">
-        <v>36590.1372234624</v>
+        <v>1928.472573600514</v>
       </c>
       <c r="AD28" t="n">
-        <v>1928.472573600514</v>
+        <v>11597.82394214708</v>
       </c>
       <c r="AE28" t="n">
-        <v>7136.552048838562</v>
+        <v>4534.707547210253</v>
       </c>
       <c r="AF28" t="n">
-        <v>2769.347642400414</v>
+        <v>414.8439648660843</v>
       </c>
       <c r="AG28" t="n">
-        <v>253.0908623643317</v>
+        <v>1215.65841191463</v>
       </c>
       <c r="AH28" t="n">
-        <v>709.2204260511361</v>
+        <v>60.46681081286674</v>
       </c>
       <c r="AI28" t="n">
-        <v>36.88943080104705</v>
+        <v>5750.365532282383</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3478.56806845155</v>
+        <v>475.3177609076577</v>
       </c>
       <c r="AK28" t="n">
-        <v>289.9802931653788</v>
+        <v>633.5301811948282</v>
       </c>
       <c r="AL28" t="n">
-        <v>406.6665324886234</v>
+        <v>32.1289858357096</v>
       </c>
       <c r="AM28" t="n">
-        <v>20.89751273328942</v>
+        <v>453.5756049822688</v>
       </c>
       <c r="AN28" t="n">
-        <v>294.1831515797041</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>49.88891687398922</v>
+        <v>80.11552975200178</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>165.7769143250543</v>
       </c>
       <c r="O29" t="n">
-        <v>366.7816500465482</v>
+        <v>53629.64457680056</v>
       </c>
       <c r="P29" t="n">
-        <v>33295.66986097596</v>
+        <v>1787.652994761536</v>
       </c>
       <c r="Q29" t="n">
-        <v>1787.652994761536</v>
+        <v>9266.125528185694</v>
       </c>
       <c r="R29" t="n">
-        <v>5567.911786864639</v>
+        <v>3969.047278737214</v>
       </c>
       <c r="S29" t="n">
-        <v>2239.694672550888</v>
+        <v>378.5453915909341</v>
       </c>
       <c r="T29" t="n">
-        <v>213.7673430099947</v>
+        <v>1635.333181980131</v>
       </c>
       <c r="U29" t="n">
-        <v>838.5098698543477</v>
+        <v>79.20525279517737</v>
       </c>
       <c r="V29" t="n">
-        <v>42.17208948793231</v>
+        <v>5604.384656787565</v>
       </c>
       <c r="W29" t="n">
-        <v>3078.204542405236</v>
+        <v>457.7580155573343</v>
       </c>
       <c r="X29" t="n">
-        <v>255.939432497927</v>
+        <v>583.5676626330393</v>
       </c>
       <c r="Y29" t="n">
-        <v>356.8807601535989</v>
+        <v>33.59823374037818</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.39930236827721</v>
+        <v>389.8147246338497</v>
       </c>
       <c r="AA29" t="n">
-        <v>245.8710692146639</v>
+        <v>67.58356357055862</v>
       </c>
       <c r="AB29" t="n">
-        <v>39.50098190630185</v>
+        <v>55864.41142698391</v>
       </c>
       <c r="AC29" t="n">
-        <v>35553.8145741517</v>
+        <v>1862.145752820004</v>
       </c>
       <c r="AD29" t="n">
-        <v>1862.145752820004</v>
+        <v>11004.27054585839</v>
       </c>
       <c r="AE29" t="n">
-        <v>6868.611497368453</v>
+        <v>4651.369954839775</v>
       </c>
       <c r="AF29" t="n">
-        <v>2799.860225772097</v>
+        <v>417.9518401354175</v>
       </c>
       <c r="AG29" t="n">
-        <v>254.3848784817748</v>
+        <v>1299.493373345937</v>
       </c>
       <c r="AH29" t="n">
-        <v>756.4887999778019</v>
+        <v>68.34615392230273</v>
       </c>
       <c r="AI29" t="n">
-        <v>40.2700103037961</v>
+        <v>5950.861227525278</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3556.349025749899</v>
+        <v>486.2963596824777</v>
       </c>
       <c r="AK29" t="n">
-        <v>294.654888785571</v>
+        <v>645.8343739858232</v>
       </c>
       <c r="AL29" t="n">
-        <v>417.2270611444714</v>
+        <v>32.57019183486051</v>
       </c>
       <c r="AM29" t="n">
-        <v>21.58362606388847</v>
+        <v>452.1829893702746</v>
       </c>
       <c r="AN29" t="n">
-        <v>297.6180150854145</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>55.77079528311198</v>
+        <v>88.706507108621</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>154.7047399605975</v>
       </c>
       <c r="O30" t="n">
-        <v>367.7221603713373</v>
+        <v>54589.85616451366</v>
       </c>
       <c r="P30" t="n">
-        <v>34588.19967178573</v>
+        <v>1819.663354562318</v>
       </c>
       <c r="Q30" t="n">
-        <v>1819.663354562318</v>
+        <v>9381.980189549542</v>
       </c>
       <c r="R30" t="n">
-        <v>5639.716498610999</v>
+        <v>3894.32323653517</v>
       </c>
       <c r="S30" t="n">
-        <v>2207.277549444168</v>
+        <v>356.794811727411</v>
       </c>
       <c r="T30" t="n">
-        <v>207.6796927021012</v>
+        <v>1270.413371210636</v>
       </c>
       <c r="U30" t="n">
-        <v>760.0999717672239</v>
+        <v>62.239635017279</v>
       </c>
       <c r="V30" t="n">
-        <v>38.84182599074407</v>
+        <v>5164.736578240395</v>
       </c>
       <c r="W30" t="n">
-        <v>2967.377521211391</v>
+        <v>419.0386408596456</v>
       </c>
       <c r="X30" t="n">
-        <v>246.5215186928453</v>
+        <v>581.6505797276527</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.3636503365075</v>
+        <v>35.68914028455468</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.50164670619057</v>
+        <v>407.2118505494385</v>
       </c>
       <c r="AA30" t="n">
-        <v>260.5585013607103</v>
+        <v>63.30358157791336</v>
       </c>
       <c r="AB30" t="n">
-        <v>38.72242967113557</v>
+        <v>58667.1472530481</v>
       </c>
       <c r="AC30" t="n">
-        <v>37483.76854926339</v>
+        <v>1955.571423490272</v>
       </c>
       <c r="AD30" t="n">
-        <v>1955.571423490272</v>
+        <v>11652.26696123531</v>
       </c>
       <c r="AE30" t="n">
-        <v>7247.625264203076</v>
+        <v>4577.841539171731</v>
       </c>
       <c r="AF30" t="n">
-        <v>2831.019466974589</v>
+        <v>416.7364437372806</v>
       </c>
       <c r="AG30" t="n">
-        <v>256.6136693750394</v>
+        <v>1262.714432881543</v>
       </c>
       <c r="AH30" t="n">
-        <v>751.3602389843229</v>
+        <v>59.49854751520195</v>
       </c>
       <c r="AI30" t="n">
-        <v>38.9261559829873</v>
+        <v>5840.561551674556</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3582.379705958911</v>
+        <v>476.2406308187641</v>
       </c>
       <c r="AK30" t="n">
-        <v>295.5398253580267</v>
+        <v>659.1608826915518</v>
       </c>
       <c r="AL30" t="n">
-        <v>426.1959316191621</v>
+        <v>32.09698585656255</v>
       </c>
       <c r="AM30" t="n">
-        <v>19.82365832696151</v>
+        <v>477.6652664544339</v>
       </c>
       <c r="AN30" t="n">
-        <v>310.3516069054419</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>51.14420334967978</v>
+        <v>83.85749251414825</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>161.9808507316816</v>
       </c>
       <c r="O31" t="n">
-        <v>362.3934795080304</v>
+        <v>52244.24690390567</v>
       </c>
       <c r="P31" t="n">
-        <v>33929.55721923002</v>
+        <v>1741.474355942856</v>
       </c>
       <c r="Q31" t="n">
-        <v>1741.474355942856</v>
+        <v>8972.788707201464</v>
       </c>
       <c r="R31" t="n">
-        <v>5538.46942429999</v>
+        <v>3767.967366130318</v>
       </c>
       <c r="S31" t="n">
-        <v>2222.400094892022</v>
+        <v>347.9127461223153</v>
       </c>
       <c r="T31" t="n">
-        <v>213.5763275167135</v>
+        <v>1206.723824701209</v>
       </c>
       <c r="U31" t="n">
-        <v>754.1866962239787</v>
+        <v>64.44096953800771</v>
       </c>
       <c r="V31" t="n">
-        <v>40.8249242340574</v>
+        <v>4974.691300347499</v>
       </c>
       <c r="W31" t="n">
-        <v>2976.586791116001</v>
+        <v>412.3520837679537</v>
       </c>
       <c r="X31" t="n">
-        <v>254.4012517507709</v>
+        <v>569.4110487743133</v>
       </c>
       <c r="Y31" t="n">
-        <v>363.6492224019165</v>
+        <v>35.26496978551753</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.60624171460744</v>
+        <v>388.1166328434247</v>
       </c>
       <c r="AA31" t="n">
-        <v>253.8305255712912</v>
+        <v>61.68877289767136</v>
       </c>
       <c r="AB31" t="n">
-        <v>38.4921729282751</v>
+        <v>55715.4013391215</v>
       </c>
       <c r="AC31" t="n">
-        <v>36579.69098693623</v>
+        <v>1857.179616603143</v>
       </c>
       <c r="AD31" t="n">
-        <v>1857.179616603143</v>
+        <v>10784.87371554436</v>
       </c>
       <c r="AE31" t="n">
-        <v>6941.582314281097</v>
+        <v>4205.142937497641</v>
       </c>
       <c r="AF31" t="n">
-        <v>2720.568075525746</v>
+        <v>392.5151388910764</v>
       </c>
       <c r="AG31" t="n">
-        <v>255.1021081754696</v>
+        <v>1117.102732895643</v>
       </c>
       <c r="AH31" t="n">
-        <v>714.9790082339774</v>
+        <v>60.81930290341327</v>
       </c>
       <c r="AI31" t="n">
-        <v>40.5050344763453</v>
+        <v>5322.248701493818</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3435.547083759724</v>
+        <v>453.3302726017216</v>
       </c>
       <c r="AK31" t="n">
-        <v>295.6071426518149</v>
+        <v>643.6691219224317</v>
       </c>
       <c r="AL31" t="n">
-        <v>419.617182809768</v>
+        <v>33.70314747401119</v>
       </c>
       <c r="AM31" t="n">
-        <v>21.51347085165864</v>
+        <v>449.3505697079661</v>
       </c>
       <c r="AN31" t="n">
-        <v>298.6458638567516</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>53.15822454623275</v>
+        <v>84.58527586497591</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>152.259349227422</v>
       </c>
       <c r="O32" t="n">
-        <v>381.6562488600418</v>
+        <v>57402.34313658279</v>
       </c>
       <c r="P32" t="n">
-        <v>34581.18036510495</v>
+        <v>1913.41275210719</v>
       </c>
       <c r="Q32" t="n">
-        <v>1913.41275210719</v>
+        <v>9958.533629228306</v>
       </c>
       <c r="R32" t="n">
-        <v>5677.000454968503</v>
+        <v>4357.480612059901</v>
       </c>
       <c r="S32" t="n">
-        <v>2306.828621054199</v>
+        <v>382.5367551180248</v>
       </c>
       <c r="T32" t="n">
-        <v>211.194209561293</v>
+        <v>1448.714824609933</v>
       </c>
       <c r="U32" t="n">
-        <v>804.2483254722033</v>
+        <v>72.64537617044581</v>
       </c>
       <c r="V32" t="n">
-        <v>41.30345346917673</v>
+        <v>5806.196816196593</v>
       </c>
       <c r="W32" t="n">
-        <v>3111.076946526402</v>
+        <v>455.1795592593419</v>
       </c>
       <c r="X32" t="n">
-        <v>252.4976630304697</v>
+        <v>600.2254230648567</v>
       </c>
       <c r="Y32" t="n">
-        <v>352.9433920595023</v>
+        <v>33.118494031286</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.84966936264697</v>
+        <v>404.6147473623453</v>
       </c>
       <c r="AA32" t="n">
-        <v>242.6659412722847</v>
+        <v>68.62004941895593</v>
       </c>
       <c r="AB32" t="n">
-        <v>37.70101311634275</v>
+        <v>60095.97196702979</v>
       </c>
       <c r="AC32" t="n">
-        <v>36954.12360602769</v>
+        <v>2003.199472255597</v>
       </c>
       <c r="AD32" t="n">
-        <v>2003.199472255597</v>
+        <v>11962.55206761198</v>
       </c>
       <c r="AE32" t="n">
-        <v>7069.680642241761</v>
+        <v>4768.530081566238</v>
       </c>
       <c r="AF32" t="n">
-        <v>2764.822128950252</v>
+        <v>430.7127529434427</v>
       </c>
       <c r="AG32" t="n">
-        <v>254.5486985986956</v>
+        <v>1311.20047206253</v>
       </c>
       <c r="AH32" t="n">
-        <v>750.1036595006694</v>
+        <v>66.22835788979575</v>
       </c>
       <c r="AI32" t="n">
-        <v>40.57452893559829</v>
+        <v>6079.744088762157</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3514.925788450921</v>
+        <v>496.9430676523314</v>
       </c>
       <c r="AK32" t="n">
-        <v>295.1232275342939</v>
+        <v>655.4686869426374</v>
       </c>
       <c r="AL32" t="n">
-        <v>410.0170057418474</v>
+        <v>33.18286006532631</v>
       </c>
       <c r="AM32" t="n">
-        <v>20.53511916275498</v>
+        <v>471.5941534547676</v>
       </c>
       <c r="AN32" t="n">
-        <v>297.932935665801</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>48.40746662136967</v>
+        <v>82.30457222722406</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>162.2378232561747</v>
       </c>
       <c r="O33" t="n">
-        <v>375.4651274187701</v>
+        <v>56118.50550243371</v>
       </c>
       <c r="P33" t="n">
-        <v>35882.35663371969</v>
+        <v>1870.621042929518</v>
       </c>
       <c r="Q33" t="n">
-        <v>1870.621042929518</v>
+        <v>9605.078293009621</v>
       </c>
       <c r="R33" t="n">
-        <v>5706.167721923632</v>
+        <v>4062.268416532682</v>
       </c>
       <c r="S33" t="n">
-        <v>2304.919906109257</v>
+        <v>376.1499411098551</v>
       </c>
       <c r="T33" t="n">
-        <v>217.8318013462579</v>
+        <v>1410.807676391367</v>
       </c>
       <c r="U33" t="n">
-        <v>787.3841499557464</v>
+        <v>70.34481225597114</v>
       </c>
       <c r="V33" t="n">
-        <v>41.32854087752671</v>
+        <v>5473.078057359678</v>
       </c>
       <c r="W33" t="n">
-        <v>3092.304056065003</v>
+        <v>446.4947463441098</v>
       </c>
       <c r="X33" t="n">
-        <v>259.1603422237847</v>
+        <v>600.3121694337752</v>
       </c>
       <c r="Y33" t="n">
-        <v>370.5829892329556</v>
+        <v>35.93066051895034</v>
       </c>
       <c r="Z33" t="n">
-        <v>22.38324650102067</v>
+        <v>407.7752056005855</v>
       </c>
       <c r="AA33" t="n">
-        <v>259.7129676217869</v>
+        <v>63.52968456590906</v>
       </c>
       <c r="AB33" t="n">
-        <v>39.72056217827052</v>
+        <v>59860.50747110297</v>
       </c>
       <c r="AC33" t="n">
-        <v>38754.97126914966</v>
+        <v>1995.348543398256</v>
       </c>
       <c r="AD33" t="n">
-        <v>1995.348543398256</v>
+        <v>11676.20158107405</v>
       </c>
       <c r="AE33" t="n">
-        <v>7259.631750448122</v>
+        <v>4615.845304324445</v>
       </c>
       <c r="AF33" t="n">
-        <v>2821.486906291807</v>
+        <v>422.4416213355545</v>
       </c>
       <c r="AG33" t="n">
-        <v>261.9915918589303</v>
+        <v>1223.284849424574</v>
       </c>
       <c r="AH33" t="n">
-        <v>760.1901019205369</v>
+        <v>64.64227821971295</v>
       </c>
       <c r="AI33" t="n">
-        <v>39.82201012278044</v>
+        <v>5839.131407073212</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3581.677008212345</v>
+        <v>487.0877212103931</v>
       </c>
       <c r="AK33" t="n">
-        <v>301.8136019817108</v>
+        <v>635.5345785471814</v>
       </c>
       <c r="AL33" t="n">
-        <v>421.2802346984014</v>
+        <v>30.68426863885332</v>
       </c>
       <c r="AM33" t="n">
-        <v>19.96680394334478</v>
+        <v>464.3785511455961</v>
       </c>
       <c r="AN33" t="n">
-        <v>311.3433241282525</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>53.96970156709396</v>
+        <v>85.02754740822186</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>157.2935869775638</v>
       </c>
       <c r="O34" t="n">
-        <v>375.6829644922393</v>
+        <v>54223.70833512935</v>
       </c>
       <c r="P34" t="n">
-        <v>33422.85003919942</v>
+        <v>1807.454281975486</v>
       </c>
       <c r="Q34" t="n">
-        <v>1807.454281975486</v>
+        <v>9319.176151327654</v>
       </c>
       <c r="R34" t="n">
-        <v>5380.62984226808</v>
+        <v>3930.103530861185</v>
       </c>
       <c r="S34" t="n">
-        <v>2155.396505003852</v>
+        <v>354.4746759181147</v>
       </c>
       <c r="T34" t="n">
-        <v>202.0897778677435</v>
+        <v>1426.297184485641</v>
       </c>
       <c r="U34" t="n">
-        <v>800.8900345072844</v>
+        <v>70.76188069546555</v>
       </c>
       <c r="V34" t="n">
-        <v>40.35868424589206</v>
+        <v>5356.396477492705</v>
       </c>
       <c r="W34" t="n">
-        <v>2956.286539511137</v>
+        <v>425.237397945899</v>
       </c>
       <c r="X34" t="n">
-        <v>242.4484621136356</v>
+        <v>572.8623902110022</v>
       </c>
       <c r="Y34" t="n">
-        <v>344.15285276138</v>
+        <v>36.32053882229911</v>
       </c>
       <c r="Z34" t="n">
-        <v>21.85688408209956</v>
+        <v>384.9125286596346</v>
       </c>
       <c r="AA34" t="n">
-        <v>242.5306070058379</v>
+        <v>65.69304805876166</v>
       </c>
       <c r="AB34" t="n">
-        <v>38.16731204911381</v>
+        <v>58266.29706494418</v>
       </c>
       <c r="AC34" t="n">
-        <v>36150.27139627429</v>
+        <v>1942.209325758756</v>
       </c>
       <c r="AD34" t="n">
-        <v>1942.209325758756</v>
+        <v>11302.05878566437</v>
       </c>
       <c r="AE34" t="n">
-        <v>6822.884009639252</v>
+        <v>4536.687251718462</v>
       </c>
       <c r="AF34" t="n">
-        <v>2703.006216876517</v>
+        <v>410.6031374144029</v>
       </c>
       <c r="AG34" t="n">
-        <v>248.7834081306076</v>
+        <v>1302.635447431909</v>
       </c>
       <c r="AH34" t="n">
-        <v>782.9131152008642</v>
+        <v>67.24781046374265</v>
       </c>
       <c r="AI34" t="n">
-        <v>40.35115828435298</v>
+        <v>5839.325093312866</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3485.91933207738</v>
+        <v>477.8486466538264</v>
       </c>
       <c r="AK34" t="n">
-        <v>289.1345664149606</v>
+        <v>647.8898290215313</v>
       </c>
       <c r="AL34" t="n">
-        <v>404.6503214059886</v>
+        <v>35.64128064303142</v>
       </c>
       <c r="AM34" t="n">
-        <v>20.44358321610746</v>
+        <v>463.5922814227685</v>
       </c>
       <c r="AN34" t="n">
-        <v>295.1643869841608</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>49.93942874328378</v>
+        <v>85.691142669264</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>156.2254821876779</v>
       </c>
       <c r="O35" t="n">
-        <v>377.2642414447861</v>
+        <v>53062.1494863258</v>
       </c>
       <c r="P35" t="n">
-        <v>34048.25089179476</v>
+        <v>1768.73827038093</v>
       </c>
       <c r="Q35" t="n">
-        <v>1768.73827038093</v>
+        <v>8877.884485928906</v>
       </c>
       <c r="R35" t="n">
-        <v>5377.011119713507</v>
+        <v>3603.986701958891</v>
       </c>
       <c r="S35" t="n">
-        <v>2155.906643618838</v>
+        <v>331.2682153698187</v>
       </c>
       <c r="T35" t="n">
-        <v>201.687013444403</v>
+        <v>1226.731942010881</v>
       </c>
       <c r="U35" t="n">
-        <v>730.8145325941829</v>
+        <v>55.95314779686238</v>
       </c>
       <c r="V35" t="n">
-        <v>35.75740533696359</v>
+        <v>4830.715936007322</v>
       </c>
       <c r="W35" t="n">
-        <v>2886.72117621302</v>
+        <v>387.2217801695903</v>
       </c>
       <c r="X35" t="n">
-        <v>237.4444187813666</v>
+        <v>539.682600106831</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6954724839072</v>
+        <v>34.24627287658491</v>
       </c>
       <c r="Z35" t="n">
-        <v>21.70841808127064</v>
+        <v>359.9829011741307</v>
       </c>
       <c r="AA35" t="n">
-        <v>235.9240775383208</v>
+        <v>60.31180995123162</v>
       </c>
       <c r="AB35" t="n">
-        <v>37.31685516834857</v>
+        <v>57118.91664874223</v>
       </c>
       <c r="AC35" t="n">
-        <v>36839.39008847587</v>
+        <v>1903.961907151699</v>
       </c>
       <c r="AD35" t="n">
-        <v>1903.961907151699</v>
+        <v>10773.81735629622</v>
       </c>
       <c r="AE35" t="n">
-        <v>6736.189254645484</v>
+        <v>4364.677945973624</v>
       </c>
       <c r="AF35" t="n">
-        <v>2642.712592114357</v>
+        <v>389.0995779945267</v>
       </c>
       <c r="AG35" t="n">
-        <v>243.3734941152901</v>
+        <v>1210.069660647443</v>
       </c>
       <c r="AH35" t="n">
-        <v>735.2783326704624</v>
+        <v>60.23001581637332</v>
       </c>
       <c r="AI35" t="n">
-        <v>38.69201492511965</v>
+        <v>5574.747487275622</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3377.99092478482</v>
+        <v>449.3281566578569</v>
       </c>
       <c r="AK35" t="n">
-        <v>282.0655090404098</v>
+        <v>633.301610424465</v>
       </c>
       <c r="AL35" t="n">
-        <v>409.3256103345475</v>
+        <v>29.91108942553548</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.91906351900707</v>
+        <v>448.1391813483765</v>
       </c>
       <c r="AN35" t="n">
-        <v>294.6362728959158</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>51.04734867531499</v>
+        <v>81.54188857718718</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>159.4900019269547</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4430397152119</v>
+        <v>54276.05658822037</v>
       </c>
       <c r="P36" t="n">
-        <v>34142.40929100969</v>
+        <v>1809.198349597943</v>
       </c>
       <c r="Q36" t="n">
-        <v>1809.198349597943</v>
+        <v>9248.213683225875</v>
       </c>
       <c r="R36" t="n">
-        <v>5511.808731717043</v>
+        <v>3950.14284438749</v>
       </c>
       <c r="S36" t="n">
-        <v>2210.877181787292</v>
+        <v>360.2940235429859</v>
       </c>
       <c r="T36" t="n">
-        <v>205.1900043537167</v>
+        <v>1403.947367575254</v>
       </c>
       <c r="U36" t="n">
-        <v>765.4041285857545</v>
+        <v>67.4373435803445</v>
       </c>
       <c r="V36" t="n">
-        <v>38.77573490522845</v>
+        <v>5354.087473015988</v>
       </c>
       <c r="W36" t="n">
-        <v>2976.281310373046</v>
+        <v>427.7322911460869</v>
       </c>
       <c r="X36" t="n">
-        <v>243.9657392589452</v>
+        <v>566.5016516917262</v>
       </c>
       <c r="Y36" t="n">
-        <v>348.0059846657446</v>
+        <v>36.02454274727033</v>
       </c>
       <c r="Z36" t="n">
-        <v>21.18084095551546</v>
+        <v>387.9501270585857</v>
       </c>
       <c r="AA36" t="n">
-        <v>244.8385907787127</v>
+        <v>67.56837434456909</v>
       </c>
       <c r="AB36" t="n">
-        <v>39.5638544128021</v>
+        <v>59288.19199499003</v>
       </c>
       <c r="AC36" t="n">
-        <v>36937.72735777771</v>
+        <v>1976.273343627745</v>
       </c>
       <c r="AD36" t="n">
-        <v>1976.273343627745</v>
+        <v>11557.81278231321</v>
       </c>
       <c r="AE36" t="n">
-        <v>6956.871236879412</v>
+        <v>4557.806915668933</v>
       </c>
       <c r="AF36" t="n">
-        <v>2733.170910786933</v>
+        <v>419.3191257455108</v>
       </c>
       <c r="AG36" t="n">
-        <v>253.589306630922</v>
+        <v>1260.935059335603</v>
       </c>
       <c r="AH36" t="n">
-        <v>749.7926146027306</v>
+        <v>65.37017902722353</v>
       </c>
       <c r="AI36" t="n">
-        <v>39.32170361869812</v>
+        <v>5818.742922700695</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3482.963525389664</v>
+        <v>484.6891919780335</v>
       </c>
       <c r="AK36" t="n">
-        <v>292.9110102496201</v>
+        <v>673.8690115689953</v>
       </c>
       <c r="AL36" t="n">
-        <v>413.8977097650268</v>
+        <v>38.13786130046227</v>
       </c>
       <c r="AM36" t="n">
-        <v>21.34995829797991</v>
+        <v>481.4901541719656</v>
       </c>
       <c r="AN36" t="n">
-        <v>300.9603039073242</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>52.1590875093632</v>
+        <v>89.48404477473635</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>160.3581284605682</v>
       </c>
       <c r="O37" t="n">
-        <v>381.539778154546</v>
+        <v>57684.86463430325</v>
       </c>
       <c r="P37" t="n">
-        <v>35039.29480010715</v>
+        <v>1922.827179887704</v>
       </c>
       <c r="Q37" t="n">
-        <v>1922.827179887704</v>
+        <v>9785.234681136102</v>
       </c>
       <c r="R37" t="n">
-        <v>5530.305875861241</v>
+        <v>4073.984114830045</v>
       </c>
       <c r="S37" t="n">
-        <v>2198.848568392603</v>
+        <v>377.869750666877</v>
       </c>
       <c r="T37" t="n">
-        <v>207.3163875193322</v>
+        <v>1519.168175724831</v>
       </c>
       <c r="U37" t="n">
-        <v>771.2032872128623</v>
+        <v>72.23377372062406</v>
       </c>
       <c r="V37" t="n">
-        <v>39.87774727508323</v>
+        <v>5593.149456573565</v>
       </c>
       <c r="W37" t="n">
-        <v>2970.051855605465</v>
+        <v>450.1007106682887</v>
       </c>
       <c r="X37" t="n">
-        <v>247.1941347944154</v>
+        <v>614.2705435183096</v>
       </c>
       <c r="Y37" t="n">
-        <v>364.5805617924314</v>
+        <v>33.00694323310985</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.06420067961071</v>
+        <v>420.7348438022874</v>
       </c>
       <c r="AA37" t="n">
-        <v>259.275786539914</v>
+        <v>65.19530007104638</v>
       </c>
       <c r="AB37" t="n">
-        <v>36.3451067890466</v>
+        <v>60021.83448615448</v>
       </c>
       <c r="AC37" t="n">
-        <v>37864.58939994599</v>
+        <v>2000.727155523885</v>
       </c>
       <c r="AD37" t="n">
-        <v>2000.727155523885</v>
+        <v>11721.11491958993</v>
       </c>
       <c r="AE37" t="n">
-        <v>7118.227624435342</v>
+        <v>4571.479136174535</v>
       </c>
       <c r="AF37" t="n">
-        <v>2758.561777221914</v>
+        <v>413.487906028482</v>
       </c>
       <c r="AG37" t="n">
-        <v>254.2911957943751</v>
+        <v>1243.631347519646</v>
       </c>
       <c r="AH37" t="n">
-        <v>746.9995120926089</v>
+        <v>62.82673015883866</v>
       </c>
       <c r="AI37" t="n">
-        <v>40.70656726966008</v>
+        <v>5815.109618031031</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3505.561289314523</v>
+        <v>476.3207545574382</v>
       </c>
       <c r="AK37" t="n">
-        <v>294.9977630640352</v>
+        <v>676.8097193788673</v>
       </c>
       <c r="AL37" t="n">
-        <v>431.6328142161732</v>
+        <v>33.60648846510332</v>
       </c>
       <c r="AM37" t="n">
-        <v>21.4568393220527</v>
+        <v>471.7698861253836</v>
       </c>
       <c r="AN37" t="n">
-        <v>307.9635331929896</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>54.64067579534346</v>
+        <v>89.41660009176799</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>156.6321294589324</v>
       </c>
       <c r="O38" t="n">
-        <v>365.7917331320667</v>
+        <v>52980.72788481071</v>
       </c>
       <c r="P38" t="n">
-        <v>34341.85868474565</v>
+        <v>1766.024981967941</v>
       </c>
       <c r="Q38" t="n">
-        <v>1766.024981967941</v>
+        <v>8838.215336704721</v>
       </c>
       <c r="R38" t="n">
-        <v>5424.007492475554</v>
+        <v>3532.971712275371</v>
       </c>
       <c r="S38" t="n">
-        <v>2129.72783696167</v>
+        <v>331.7918679093628</v>
       </c>
       <c r="T38" t="n">
-        <v>202.6490622173275</v>
+        <v>1260.09662499329</v>
       </c>
       <c r="U38" t="n">
-        <v>773.627396506918</v>
+        <v>63.29346988062513</v>
       </c>
       <c r="V38" t="n">
-        <v>39.3903246138122</v>
+        <v>4793.073622825509</v>
       </c>
       <c r="W38" t="n">
-        <v>2903.355233468587</v>
+        <v>395.0911147072524</v>
       </c>
       <c r="X38" t="n">
-        <v>242.0393868311397</v>
+        <v>561.0700998563137</v>
       </c>
       <c r="Y38" t="n">
-        <v>353.7812975618136</v>
+        <v>33.43436090356312</v>
       </c>
       <c r="Z38" t="n">
-        <v>21.44437615851464</v>
+        <v>374.335326130877</v>
       </c>
       <c r="AA38" t="n">
-        <v>247.3151723994127</v>
+        <v>64.80729747164392</v>
       </c>
       <c r="AB38" t="n">
-        <v>39.3553108147733</v>
+        <v>55633.36397178935</v>
       </c>
       <c r="AC38" t="n">
-        <v>35328.4426223925</v>
+        <v>1854.447347562283</v>
       </c>
       <c r="AD38" t="n">
-        <v>1854.447347562283</v>
+        <v>10417.30170862495</v>
       </c>
       <c r="AE38" t="n">
-        <v>6464.45217871369</v>
+        <v>4116.733900728036</v>
       </c>
       <c r="AF38" t="n">
-        <v>2513.231054111717</v>
+        <v>385.4993096627587</v>
       </c>
       <c r="AG38" t="n">
-        <v>234.799724282633</v>
+        <v>1131.396424642661</v>
       </c>
       <c r="AH38" t="n">
-        <v>658.1318168437838</v>
+        <v>63.71645983716866</v>
       </c>
       <c r="AI38" t="n">
-        <v>37.63993343947787</v>
+        <v>5248.13077642952</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3171.362870955501</v>
+        <v>449.2182506803766</v>
       </c>
       <c r="AK38" t="n">
-        <v>272.439657722111</v>
+        <v>617.6269698065371</v>
       </c>
       <c r="AL38" t="n">
-        <v>396.9746382133059</v>
+        <v>33.24179363426021</v>
       </c>
       <c r="AM38" t="n">
-        <v>20.77185248389837</v>
+        <v>438.014290690795</v>
       </c>
       <c r="AN38" t="n">
-        <v>286.9490608274015</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>50.49359073861848</v>
+        <v>81.2809299303361</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>158.8738954503357</v>
       </c>
       <c r="O39" t="n">
-        <v>382.669447463261</v>
+        <v>54785.287203982</v>
       </c>
       <c r="P39" t="n">
-        <v>35194.93369135688</v>
+        <v>1826.176596868635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1826.176596868635</v>
+        <v>9261.906376691963</v>
       </c>
       <c r="R39" t="n">
-        <v>5586.816659600617</v>
+        <v>3870.63802159949</v>
       </c>
       <c r="S39" t="n">
-        <v>2216.532646227088</v>
+        <v>355.2436368561954</v>
       </c>
       <c r="T39" t="n">
-        <v>207.2109911652874</v>
+        <v>1414.450494786671</v>
       </c>
       <c r="U39" t="n">
-        <v>789.7756708765988</v>
+        <v>70.55196923411189</v>
       </c>
       <c r="V39" t="n">
-        <v>40.62217504601365</v>
+        <v>5285.08532630515</v>
       </c>
       <c r="W39" t="n">
-        <v>3006.308317103687</v>
+        <v>425.8008334143329</v>
       </c>
       <c r="X39" t="n">
-        <v>247.8331662113011</v>
+        <v>587.7545701708383</v>
       </c>
       <c r="Y39" t="n">
-        <v>368.2891914076318</v>
+        <v>35.20345142897005</v>
       </c>
       <c r="Z39" t="n">
-        <v>22.22382524858419</v>
+        <v>403.4112406372082</v>
       </c>
       <c r="AA39" t="n">
-        <v>259.5649594051025</v>
+        <v>64.13170090488978</v>
       </c>
       <c r="AB39" t="n">
-        <v>38.7957238590037</v>
+        <v>60044.40242154873</v>
       </c>
       <c r="AC39" t="n">
-        <v>38094.09470938893</v>
+        <v>2001.480789246654</v>
       </c>
       <c r="AD39" t="n">
-        <v>2001.480789246654</v>
+        <v>11408.93119209682</v>
       </c>
       <c r="AE39" t="n">
-        <v>6985.293262942155</v>
+        <v>4553.344321384569</v>
       </c>
       <c r="AF39" t="n">
-        <v>2714.677863221483</v>
+        <v>418.0814238114292</v>
       </c>
       <c r="AG39" t="n">
-        <v>251.9308432833071</v>
+        <v>1307.34553291918</v>
       </c>
       <c r="AH39" t="n">
-        <v>769.8903009198167</v>
+        <v>62.63269234623674</v>
       </c>
       <c r="AI39" t="n">
-        <v>38.46250632724527</v>
+        <v>5860.697694610542</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3484.5681641413</v>
+        <v>480.7224924402198</v>
       </c>
       <c r="AK39" t="n">
-        <v>290.3933496105524</v>
+        <v>672.9102341962736</v>
       </c>
       <c r="AL39" t="n">
-        <v>433.0349908128103</v>
+        <v>34.50054070784562</v>
       </c>
       <c r="AM39" t="n">
-        <v>20.76789941641715</v>
+        <v>469.2065618760341</v>
       </c>
       <c r="AN39" t="n">
-        <v>310.7538851147246</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>53.21957398971733</v>
+        <v>85.23978010207401</v>
       </c>
     </row>
   </sheetData>
